--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fm19gzNr</t>
+          <t>neJGiEie</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,37 +738,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>WS Wanderers</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.91</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -777,10 +777,10 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -795,31 +795,31 @@
         <v>2.5</v>
       </c>
       <c r="W2" t="n">
+        <v>11</v>
+      </c>
+      <c r="X2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="n">
         <v>17</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AC2" t="n">
         <v>21</v>
       </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>19</v>
-      </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -828,40 +828,40 @@
         <v>101</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
         <v>3.75</v>
@@ -876,26 +876,382 @@
         <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tSFajqxe</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Barito Putera</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Persita</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Y1Cih57r</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Persik Kediri</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PSIS Semarang</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
         <v>2.1</v>
@@ -1113,13 +1113,13 @@
         <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
@@ -1128,16 +1128,16 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6.75</v>
+        <v>6.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>1.65</v>
@@ -1149,13 +1149,13 @@
         <v>2.52</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X4" t="n">
         <v>7.3</v>
@@ -1167,37 +1167,37 @@
         <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AH4" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>16</v>
       </c>
       <c r="AK4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL4" t="n">
         <v>50</v>
@@ -1212,44 +1212,44 @@
         <v>8.25</v>
       </c>
       <c r="AP4" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AY4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA4" t="n">
         <v>175</v>
       </c>
       <c r="BB4" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC4" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD4" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I2" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.33</v>
       </c>
       <c r="J2" t="n">
         <v>2.1</v>
@@ -762,19 +762,19 @@
         <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
         <v>1.44</v>
@@ -798,16 +798,16 @@
         <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
@@ -816,7 +816,7 @@
         <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -855,10 +855,10 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS2" t="n">
         <v>81</v>
@@ -879,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
         <v>23</v>
@@ -1125,10 +1125,10 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.1</v>
@@ -768,13 +768,13 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W2" t="n">
         <v>11</v>
@@ -822,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
         <v>101</v>
@@ -840,7 +840,7 @@
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -867,7 +867,7 @@
         <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -1128,7 +1128,7 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>6.6</v>
+        <v>6.55</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.1</v>
@@ -762,7 +762,7 @@
         <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -789,10 +789,10 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
         <v>11</v>
@@ -804,10 +804,10 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
@@ -822,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>101</v>
@@ -840,7 +840,7 @@
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>34</v>
@@ -867,7 +867,7 @@
         <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tSFajqxe</t>
+          <t>6ZYnAqT7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,348 +910,1002 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Kolkheti 1913</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Torpedo Kutaisi</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.88</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>4.35</v>
+        <v>2.12</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7.9</v>
+        <v>10.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
         <v>1.39</v>
       </c>
       <c r="T3" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V3" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="W3" t="n">
-        <v>6.2</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>8.25</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
-        <v>16.5</v>
+        <v>35</v>
       </c>
       <c r="AB3" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP3" t="n">
         <v>30</v>
       </c>
-      <c r="AC3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="AR3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV3" t="n">
         <v>65</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>60</v>
       </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>5.8</v>
+        <v>3.45</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>7.6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="BB3" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="BC3" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>xfsWDRTr</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Samgurali</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Samtredia</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>tSFajqxe</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Barito Putera</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Persita</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Y1Cih57r</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>23/11/2024</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>05:30</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Persik Kediri</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>PSIS Semarang</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="G6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L6" t="n">
         <v>5</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M6" t="n">
         <v>1.04</v>
       </c>
-      <c r="N4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="N6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.4</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T6" t="n">
         <v>2.52</v>
       </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="U6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y6" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="Z6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>QLdg8mmJ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Alberts JDFS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Grobina</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="X7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC7" t="n">
         <v>15</v>
       </c>
-      <c r="AB4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AD7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>37</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>150</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pANvoeuf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Young Lions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>34</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>29</v>
+      </c>
+      <c r="X8" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY8" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AZ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB8" t="n">
         <v>29</v>
       </c>
-      <c r="AR4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD4" t="inlineStr"/>
+      <c r="BC8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
@@ -759,16 +759,16 @@
         <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -789,10 +789,10 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W2" t="n">
         <v>11</v>
@@ -804,25 +804,25 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
         <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
         <v>101</v>
@@ -858,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
         <v>81</v>
@@ -867,7 +867,7 @@
         <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6ZYnAqT7</t>
+          <t>UsqWnbLa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,175 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kolkheti 1913</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Torpedo Kutaisi</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>2.12</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>3.44</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.39</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.82</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.94</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>350</v>
+        <v>1250</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.1</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX3" t="n">
         <v>6.5</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="n">
-        <v>3.45</v>
-      </c>
       <c r="AY3" t="n">
-        <v>7.6</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16.5</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>200</v>
-      </c>
-      <c r="BD3" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>xfsWDRTr</t>
+          <t>6ZYnAqT7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1098,101 +1102,165 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Samgurali</t>
+          <t>Kolkheti 1913</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Samtredia</t>
+          <t>Torpedo Kutaisi</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.69</v>
+        <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>4.26</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.22</v>
+        <v>4.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>4.65</v>
+        <v>2.12</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>3.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="V4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
+        <v>1.94</v>
+      </c>
+      <c r="W4" t="n">
+        <v>11</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>65</v>
+      </c>
       <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
+      <c r="AX4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>200</v>
+      </c>
       <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tSFajqxe</t>
+          <t>xfsWDRTr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1202,175 +1270,111 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Samgurali</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Samtredia</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>4.26</v>
       </c>
       <c r="J5" t="n">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>4.25</v>
+        <v>4.65</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.67</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="T5" t="n">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="X5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>60</v>
-      </c>
+        <v>2.34</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>28</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>350</v>
-      </c>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Y1Cih57r</t>
+          <t>tSFajqxe</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1390,43 +1394,43 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Persik Kediri</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.52</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q6" t="n">
         <v>2.02</v>
@@ -1441,114 +1445,114 @@
         <v>2.52</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="V6" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB6" t="n">
         <v>30</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="AP6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AR6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS6" t="n">
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AV6" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="AY6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>28</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>35</v>
-      </c>
       <c r="BA6" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="BB6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC6" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>QLdg8mmJ</t>
+          <t>Y1Cih57r</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1558,179 +1562,175 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Alberts JDFS</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P7" t="n">
         <v>2.72</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>12</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3.42</v>
+        <v>2.55</v>
       </c>
       <c r="U7" t="n">
-        <v>1.47</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>10.75</v>
+        <v>5.8</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI7" t="n">
-        <v>10.75</v>
+        <v>27</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.7</v>
+        <v>15.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AR7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA7" t="n">
         <v>175</v>
       </c>
-      <c r="AT7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>37</v>
-      </c>
       <c r="BB7" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="BC7" t="n">
-        <v>150</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>51</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pANvoeuf</t>
+          <t>QLdg8mmJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1745,167 +1745,865 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Alberts JDFS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>2.72</v>
       </c>
       <c r="H8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P8" t="n">
         <v>4.33</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>34</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P8" t="n">
-        <v>11</v>
-      </c>
       <c r="Q8" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="T8" t="n">
-        <v>5.5</v>
+        <v>3.42</v>
       </c>
       <c r="U8" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="V8" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="W8" t="n">
-        <v>29</v>
+        <v>10.75</v>
       </c>
       <c r="X8" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>8.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>6.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>10.75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AS8" t="n">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="AU8" t="n">
         <v>6.5</v>
       </c>
       <c r="AV8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>37</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>150</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pANvoeuf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Young Lions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>34</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W9" t="n">
         <v>29</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="X9" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW9" t="n">
         <v>151</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX9" t="n">
         <v>4.75</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ9" t="n">
         <v>12</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA9" t="n">
         <v>21</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB9" t="n">
         <v>29</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="BD8" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EkuvK9MU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>8tAe0jwp</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>G6D3bU7d</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yeni Malatyaspor</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>21</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J12" t="n">
+        <v>17</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="n">
+        <v>34</v>
+      </c>
+      <c r="X12" t="n">
+        <v>81</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,10 +771,10 @@
         <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
         <v>1.44</v>
@@ -1289,86 +1289,150 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.26</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
         <v>2.22</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="L5" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
+        <v>2.08</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>50</v>
+      </c>
       <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
+      <c r="AX5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>300</v>
+      </c>
       <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1786,7 +1850,7 @@
         <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>4.35</v>
       </c>
       <c r="Q8" t="n">
         <v>1.53</v>
@@ -1912,7 +1976,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pANvoeuf</t>
+          <t>C8BSPIJt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1922,177 +1986,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.29</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="n">
         <v>29</v>
       </c>
-      <c r="X9" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
       <c r="AC9" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
         <v>51</v>
       </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>29</v>
-      </c>
       <c r="AW9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AX9" t="n">
         <v>4.75</v>
       </c>
       <c r="AY9" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AZ9" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BA9" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD9" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EkuvK9MU</t>
+          <t>pANvoeuf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2102,179 +2168,177 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Young Lions</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>34</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V10" t="n">
         <v>3.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="X10" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE10" t="n">
         <v>11</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AF10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH10" t="n">
         <v>19</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AI10" t="n">
         <v>15</v>
       </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL10" t="n">
         <v>12</v>
       </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AM10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO10" t="n">
         <v>19</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AV10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="BC10" t="n">
         <v>51</v>
       </c>
-      <c r="AW10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>301</v>
-      </c>
+      <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8tAe0jwp</t>
+          <t>AymU6lCj</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2284,326 +2348,872 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Uthai Thani</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Port MTI FC</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
-        <v>2.63</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>2.42</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.33</v>
       </c>
-      <c r="P11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="n">
         <v>12</v>
       </c>
-      <c r="Y11" t="n">
-        <v>10</v>
-      </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AA11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM11" t="n">
         <v>21</v>
       </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AN11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY11" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="BB11" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>126</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="BD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>EkuvK9MU</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>8tAe0jwp</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>G6D3bU7d</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>23/11/2024</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>07:30</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>TURKEY - 1. LIG</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Yeni Malatyaspor</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Istanbulspor AS</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>21</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>9</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>1.11</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J14" t="n">
         <v>17</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K14" t="n">
         <v>3</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>1.44</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.5</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R14" t="n">
         <v>2.5</v>
       </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="n">
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="n">
         <v>34</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X14" t="n">
         <v>81</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y14" t="n">
         <v>51</v>
       </c>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="n">
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
         <v>151</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB14" t="n">
         <v>126</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC14" t="n">
         <v>15</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD14" t="n">
         <v>17</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE14" t="n">
         <v>41</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF14" t="n">
         <v>151</v>
       </c>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="n">
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI14" t="n">
         <v>5.5</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ14" t="n">
         <v>12</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK14" t="n">
         <v>5.5</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL14" t="n">
         <v>13</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM14" t="n">
         <v>41</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN14" t="n">
         <v>17</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO14" t="n">
         <v>81</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP14" t="n">
         <v>81</v>
       </c>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="n">
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="n">
         <v>3.75</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU14" t="n">
         <v>15</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV14" t="n">
         <v>101</v>
       </c>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="n">
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="n">
         <v>3</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AY14" t="n">
         <v>4.5</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="AZ14" t="n">
         <v>21</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BA14" t="n">
         <v>10</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BB14" t="n">
         <v>41</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BC14" t="n">
         <v>201</v>
       </c>
-      <c r="BD12" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>OjaSazmD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>110</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,16 +765,16 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q2" t="n">
         <v>2.7</v>
@@ -929,34 +929,34 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.22</v>
       </c>
-      <c r="L3" t="n">
-        <v>2.15</v>
-      </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="Q3" t="n">
         <v>1.78</v>
@@ -971,100 +971,100 @@
         <v>2.45</v>
       </c>
       <c r="U3" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="W3" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
         <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB3" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AE3" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AG3" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AK3" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AL3" t="n">
         <v>10.75</v>
       </c>
       <c r="AM3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AP3" t="n">
         <v>30</v>
       </c>
       <c r="AQ3" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR3" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS3" t="n">
         <v>400</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AV3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
         <v>55</v>
@@ -1128,13 +1128,13 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>11.5</v>
+        <v>12.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Q4" t="n">
         <v>1.57</v>
@@ -1143,10 +1143,10 @@
         <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T4" t="n">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="U4" t="n">
         <v>1.64</v>
@@ -1256,7 +1256,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QLdg8mmJ</t>
+          <t>0zmpGTWG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1266,179 +1266,175 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alberts JDFS</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>North East Utd</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.72</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.12</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.62</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
         <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="W5" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
         <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>10.75</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.7</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.35</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C8BSPIJt</t>
+          <t>QLdg8mmJ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1448,179 +1444,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Alberts JDFS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.72</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.12</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>4.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>3.42</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>10.75</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE6" t="n">
         <v>10</v>
       </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="AH6" t="n">
         <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>10.75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>7.7</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AV6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>37</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="AW6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
+      <c r="BD6" t="n">
         <v>51</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pANvoeuf</t>
+          <t>C8BSPIJt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,177 +1626,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.29</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
         <v>29</v>
       </c>
-      <c r="X7" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
       <c r="AC7" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
         <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>29</v>
       </c>
       <c r="AW7" t="n">
         <v>4.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD7" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AymU6lCj</t>
+          <t>pANvoeuf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1810,175 +1808,177 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Uthai Thani</t>
+          <t>Young Lions</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Port MTI FC</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="L8" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="P8" t="n">
-        <v>3.95</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="T8" t="n">
-        <v>3.05</v>
+        <v>5.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="W8" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="X8" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB8" t="n">
         <v>21</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AC8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD8" t="n">
         <v>12</v>
       </c>
-      <c r="Z8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AE8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.25</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.7</v>
+        <v>7.5</v>
       </c>
       <c r="AO8" t="n">
         <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.05</v>
+        <v>5.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ8" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="BA8" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="BB8" t="n">
-        <v>175</v>
-      </c>
-      <c r="BC8" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>151</v>
+      </c>
       <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EkuvK9MU</t>
+          <t>AymU6lCj</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1988,179 +1988,175 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Uthai Thani</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Port MTI FC</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>2.42</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W9" t="n">
+        <v>13</v>
+      </c>
+      <c r="X9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y9" t="n">
         <v>12</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="Z9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW9" t="n">
         <v>4</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>9</v>
-      </c>
-      <c r="X9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>301</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8tAe0jwp</t>
+          <t>EkuvK9MU</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2175,153 +2171,153 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
         <v>51</v>
       </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>51</v>
@@ -2330,19 +2326,19 @@
         <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>G6D3bU7d</t>
+          <t>8tAe0jwp</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2362,143 +2358,169 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Yeni Malatyaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
         <v>21</v>
       </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>17</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="n">
+      <c r="AB11" t="n">
         <v>34</v>
       </c>
-      <c r="X11" t="n">
-        <v>81</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="AC11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
         <v>51</v>
       </c>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" t="n">
         <v>15</v>
       </c>
-      <c r="AD11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>81</v>
-      </c>
       <c r="AP11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
       <c r="AT11" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX11" t="n">
         <v>15</v>
       </c>
-      <c r="AV11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
       </c>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
+      <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OjaSazmD</t>
+          <t>G6D3bU7d</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2508,172 +2530,340 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Yeni Malatyaspor</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.65</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>1.11</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>17</v>
       </c>
       <c r="K12" t="n">
-        <v>1.93</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>8.15</v>
+        <v>13.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="P12" t="n">
-        <v>2.52</v>
+        <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="T12" t="n">
-        <v>2.35</v>
+        <v>3.62</v>
       </c>
       <c r="U12" t="n">
-        <v>1.82</v>
+        <v>2.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="W12" t="n">
-        <v>7.2</v>
+        <v>34</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>32</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="AB12" t="n">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.1</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.5</v>
+        <v>41</v>
       </c>
       <c r="AF12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>700</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
         <v>7.5</v>
       </c>
       <c r="AI12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OjaSazmD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI13" t="n">
         <v>13.5</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ13" t="n">
         <v>10.25</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK13" t="n">
         <v>35</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL13" t="n">
         <v>26</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM13" t="n">
         <v>37</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN13" t="n">
         <v>4.45</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO13" t="n">
         <v>14.5</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP13" t="n">
         <v>23</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ13" t="n">
         <v>70</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR13" t="n">
         <v>110</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS13" t="n">
         <v>300</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT13" t="n">
         <v>2.32</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU13" t="n">
         <v>6.8</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV13" t="n">
         <v>65</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AW13" t="n">
         <v>4.6</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AX13" t="n">
         <v>15.5</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AY13" t="n">
         <v>23</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="AZ13" t="n">
         <v>75</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BA13" t="n">
         <v>110</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BB13" t="n">
         <v>300</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BC13" t="n">
         <v>81</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD13" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,25 +756,25 @@
         <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
         <v>2.7</v>
@@ -783,10 +783,10 @@
         <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -843,10 +843,10 @@
         <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -864,7 +864,7 @@
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
@@ -876,7 +876,7 @@
         <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -947,16 +947,16 @@
         <v>2.22</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="Q3" t="n">
         <v>1.78</v>
@@ -971,10 +971,10 @@
         <v>2.45</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="W3" t="n">
         <v>11</v>
@@ -1128,13 +1128,13 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>4.4</v>
+        <v>4.86</v>
       </c>
       <c r="Q4" t="n">
         <v>1.57</v>
@@ -1143,16 +1143,16 @@
         <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="T4" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="U4" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1256,7 +1256,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0zmpGTWG</t>
+          <t>GGtoUulo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1266,125 +1266,125 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>North East Utd</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.4</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X5" t="n">
         <v>10</v>
-      </c>
-      <c r="X5" t="n">
-        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM5" t="n">
         <v>34</v>
       </c>
-      <c r="AL5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>26</v>
-      </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
@@ -1399,42 +1399,46 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>QLdg8mmJ</t>
+          <t>YVTenuAT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1444,179 +1448,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Alberts JDFS</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>13</v>
+      </c>
+      <c r="X6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH6" t="n">
         <v>12</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="X6" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AK6" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AN6" t="n">
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.35</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C8BSPIJt</t>
+          <t>vkSujNA4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1626,155 +1630,155 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T7" t="n">
         <v>3.4</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
         <v>11</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
         <v>12</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
         <v>41</v>
       </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
       <c r="AW7" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
@@ -1786,7 +1790,7 @@
         <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1798,7 +1802,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pANvoeuf</t>
+          <t>hGAStJXj</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1808,177 +1812,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P8" t="n">
         <v>4.33</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="Q8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R8" t="n">
         <v>2.1</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>34</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4.2</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.29</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
         <v>29</v>
       </c>
-      <c r="X8" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="AJ8" t="n">
         <v>17</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AK8" t="n">
         <v>51</v>
       </c>
-      <c r="AA8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>19</v>
-      </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
         <v>51</v>
       </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV8" t="n">
+      <c r="AW8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY8" t="n">
         <v>29</v>
       </c>
-      <c r="AW8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>12</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD8" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AymU6lCj</t>
+          <t>0zmpGTWG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1988,167 +1994,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Uthai Thani</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Port MTI FC</t>
+          <t>North East Utd</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.6</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R9" t="n">
         <v>2.25</v>
       </c>
-      <c r="L9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH9" t="n">
         <v>13</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY9" t="n">
         <v>21</v>
       </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>16</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
@@ -2156,7 +2162,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EkuvK9MU</t>
+          <t>8vifCQbE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2166,179 +2172,175 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>2.57</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>11.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
         <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4.65</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>301</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8tAe0jwp</t>
+          <t>QLdg8mmJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2348,179 +2350,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Alberts JDFS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T11" t="n">
         <v>3.4</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>2.21</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>10.75</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="Z11" t="n">
         <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH11" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AI11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU11" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AV11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>37</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC11" t="n">
         <v>51</v>
       </c>
-      <c r="AG11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
+      <c r="BD11" t="n">
         <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>G6D3bU7d</t>
+          <t>C8BSPIJt</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2530,165 +2532,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Yeni Malatyaspor</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
         <v>21</v>
       </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="J12" t="n">
-        <v>17</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
         <v>2.75</v>
       </c>
-      <c r="V12" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W12" t="n">
-        <v>34</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC12" t="n">
         <v>81</v>
       </c>
-      <c r="Y12" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="BD12" t="n">
         <v>81</v>
       </c>
-      <c r="AP12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OjaSazmD</t>
+          <t>Kp5J7zhK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2698,172 +2714,1420 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Al Arabi</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Al-Duhail</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.65</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2.82</v>
+        <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>1.57</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>4.65</v>
       </c>
       <c r="K13" t="n">
-        <v>1.93</v>
+        <v>2.52</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>8.15</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.4</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>2.72</v>
       </c>
       <c r="S13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.47</v>
       </c>
-      <c r="T13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.82</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>7.2</v>
+        <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>35</v>
       </c>
       <c r="Y13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC13" t="n">
         <v>10</v>
       </c>
-      <c r="Z13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AD13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
         <v>37</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AG13" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN13" t="n">
         <v>7.1</v>
       </c>
-      <c r="AD13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.45</v>
-      </c>
       <c r="AO13" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>32</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>110</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pANvoeuf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Young Lions</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>34</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W14" t="n">
+        <v>34</v>
+      </c>
+      <c r="X14" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AymU6lCj</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Uthai Thani</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Port MTI FC</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W15" t="n">
+        <v>13</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>vcrUAcDO</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W16" t="n">
+        <v>11</v>
+      </c>
+      <c r="X16" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA16" t="n">
         <v>70</v>
       </c>
-      <c r="AR13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="BB16" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EkuvK9MU</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>9</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>8tAe0jwp</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>G6D3bU7d</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yeni Malatyaspor</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>26</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J19" t="n">
+        <v>19</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W19" t="n">
+        <v>41</v>
+      </c>
+      <c r="X19" t="n">
+        <v>101</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>OjaSazmD</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS20" t="n">
         <v>300</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT20" t="n">
         <v>2.32</v>
       </c>
-      <c r="AU13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV13" t="n">
+      <c r="AU20" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV20" t="n">
         <v>65</v>
       </c>
-      <c r="AW13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC13" t="n">
+      <c r="AW20" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC20" t="n">
         <v>81</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BD20" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,16 +771,16 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -1649,19 +1649,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
         <v>3.75</v>
@@ -1691,16 +1691,16 @@
         <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
         <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1718,13 +1718,13 @@
         <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
         <v>126</v>
@@ -1739,13 +1739,13 @@
         <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="n">
         <v>4.33</v>
@@ -1754,13 +1754,13 @@
         <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
         <v>34</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>101</v>
@@ -1769,7 +1769,7 @@
         <v>3.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV7" t="n">
         <v>41</v>
@@ -1781,7 +1781,7 @@
         <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
         <v>51</v>
@@ -1849,13 +1849,13 @@
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
         <v>4.33</v>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2581,10 +2581,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2884,7 +2884,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pANvoeuf</t>
+          <t>AymU6lCj</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2894,177 +2894,175 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Young Lions</t>
+          <t>Uthai Thani</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Albirex Niigata</t>
+          <t>Port MTI FC</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="I14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.57</v>
       </c>
-      <c r="J14" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>34</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="V14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W14" t="n">
         <v>13</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W14" t="n">
-        <v>34</v>
-      </c>
       <c r="X14" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK14" t="n">
         <v>17</v>
       </c>
-      <c r="Z14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AL14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM14" t="n">
         <v>21</v>
       </c>
-      <c r="AC14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>13</v>
-      </c>
       <c r="AN14" t="n">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO14" t="n">
         <v>19</v>
       </c>
       <c r="AP14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AR14" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="AS14" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>5.5</v>
+        <v>3.05</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV14" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="BA14" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="BB14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>126</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AymU6lCj</t>
+          <t>vcrUAcDO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3074,7 +3072,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3084,157 +3082,157 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Uthai Thani</t>
+          <t>Muang Thong Utd</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Port MTI FC</t>
+          <t>Bangkok Utd</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>2.42</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L15" t="n">
-        <v>2.42</v>
+        <v>2.95</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="T15" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="U15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V15" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="W15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA15" t="n">
         <v>21</v>
       </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AB15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>50</v>
       </c>
-      <c r="AA15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>32</v>
-      </c>
       <c r="BA15" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BB15" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="inlineStr"/>
@@ -3242,7 +3240,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>vcrUAcDO</t>
+          <t>EkuvK9MU</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3252,175 +3250,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Muang Thong Utd</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bangkok Utd</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.72</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
         <v>8</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W16" t="n">
-        <v>11</v>
-      </c>
-      <c r="X16" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AV16" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AZ16" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA16" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EkuvK9MU</t>
+          <t>8tAe0jwp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3435,153 +3437,153 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
         <v>12</v>
       </c>
       <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI17" t="n">
         <v>13</v>
       </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
         <v>51</v>
@@ -3590,19 +3592,19 @@
         <v>67</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8tAe0jwp</t>
+          <t>G6D3bU7d</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3622,169 +3624,155 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Yeni Malatyaspor</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>26</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>2.63</v>
+        <v>1.08</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>12.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>5.86</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>3.92</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>2.98</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
+        <v>41</v>
+      </c>
+      <c r="X18" t="n">
+        <v>101</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="n">
         <v>8</v>
       </c>
-      <c r="X18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA18" t="n">
+      <c r="AI18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY18" t="n">
         <v>21</v>
       </c>
-      <c r="AB18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB18" t="n">
         <v>201</v>
       </c>
-      <c r="BC18" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>126</v>
-      </c>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G6D3bU7d</t>
+          <t>OjaSazmD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3794,340 +3782,172 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Yeni Malatyaspor</t>
+          <t>Vorskla Poltava</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>LNZ Cherkasy</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>26</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>2.82</v>
       </c>
       <c r="I19" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.08</v>
       </c>
-      <c r="J19" t="n">
-        <v>19</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="O19" t="n">
         <v>1.4</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N19" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.11</v>
-      </c>
       <c r="P19" t="n">
-        <v>4.55</v>
+        <v>2.52</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="T19" t="n">
-        <v>3.7</v>
+        <v>2.37</v>
       </c>
       <c r="U19" t="n">
-        <v>2.84</v>
+        <v>1.82</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>41</v>
+        <v>6.9</v>
       </c>
       <c r="X19" t="n">
-        <v>101</v>
+        <v>11.75</v>
       </c>
       <c r="Y19" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
+        <v>9.75</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>29</v>
+      </c>
       <c r="AA19" t="n">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="AB19" t="n">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="AC19" t="n">
-        <v>17</v>
+        <v>7.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>41</v>
+        <v>14.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG19" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>700</v>
+      </c>
       <c r="AH19" t="n">
         <v>8</v>
       </c>
       <c r="AI19" t="n">
-        <v>5.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>5.5</v>
+        <v>37</v>
       </c>
       <c r="AL19" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>4.35</v>
       </c>
       <c r="AO19" t="n">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC19" t="n">
         <v>81</v>
       </c>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>OjaSazmD</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Vorskla Poltava</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>LNZ Cherkasy</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD20" t="n">
+      <c r="BD19" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UsqWnbLa</t>
+          <t>EubK3NNG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>ENGLAND - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lok. Plovdiv</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>1.44</v>
       </c>
       <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>17</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R2" t="n">
         <v>2.63</v>
       </c>
-      <c r="K2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM2" t="n">
         <v>23</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>51</v>
-      </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
         <v>41</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AW2" t="n">
+        <v>451</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC2" t="n">
         <v>81</v>
       </c>
-      <c r="AS2" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6ZYnAqT7</t>
+          <t>UsqWnbLa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,175 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kolkheti 1913</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Torpedo Kutaisi</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.65</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>4.9</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>2.22</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>3.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO3" t="n">
         <v>11</v>
       </c>
-      <c r="X3" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN3" t="n">
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX3" t="n">
         <v>6.5</v>
       </c>
-      <c r="AO3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>xfsWDRTr</t>
+          <t>ILntZCLH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,175 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Samgurali</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Samtredia</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.52</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.02</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>4.86</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>3.39</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.9</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM4" t="n">
         <v>26</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>35</v>
-      </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.1</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>21</v>
       </c>
-      <c r="AR4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>150</v>
-      </c>
       <c r="BA4" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GGtoUulo</t>
+          <t>zaQVxbnd</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1266,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.4</v>
       </c>
-      <c r="I5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.63</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
         <v>13</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>10</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AK5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL5" t="n">
         <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>4.5</v>
       </c>
       <c r="AY5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>26</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
         <v>51</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
         <v>81</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BC5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD5" t="n">
         <v>151</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YVTenuAT</t>
+          <t>ShDH01v3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1448,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.5</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.88</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
         <v>23</v>
       </c>
-      <c r="AL6" t="n">
-        <v>17</v>
-      </c>
       <c r="AM6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
         <v>51</v>
       </c>
-      <c r="AS6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
       <c r="AW6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="n">
         <v>4.75</v>
       </c>
-      <c r="AX6" t="n">
-        <v>12</v>
-      </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vkSujNA4</t>
+          <t>rFKlCFKU</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
       <c r="R7" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>15</v>
       </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
         <v>34</v>
       </c>
-      <c r="AL7" t="n">
-        <v>23</v>
-      </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX7" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>21</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
         <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hGAStJXj</t>
+          <t>8t4uLzpJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1812,47 +1820,47 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I8" t="n">
         <v>4</v>
       </c>
-      <c r="I8" t="n">
-        <v>5.75</v>
-      </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
@@ -1861,85 +1869,85 @@
         <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
         <v>7.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
         <v>29</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1948,43 +1956,43 @@
         <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>451</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB8" t="n">
         <v>81</v>
       </c>
-      <c r="BA8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>201</v>
-      </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0zmpGTWG</t>
+          <t>S6CtlZD5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1994,175 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>North East Utd</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R9" t="n">
         <v>2.05</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>15</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.25</v>
-      </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="n">
         <v>12</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AD9" t="n">
         <v>9</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AE9" t="n">
         <v>21</v>
       </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH9" t="n">
         <v>7</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AI9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL9" t="n">
         <v>12</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO9" t="n">
         <v>41</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AP9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
         <v>126</v>
       </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AX9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>19</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP9" t="n">
+      <c r="BA9" t="n">
         <v>19</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
+      <c r="BB9" t="n">
         <v>41</v>
       </c>
-      <c r="AW9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB9" t="n">
+      <c r="BC9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD9" t="n">
         <v>126</v>
       </c>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8vifCQbE</t>
+          <t>M55knDrI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2172,175 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.57</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>11.8</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>3.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
-        <v>3.15</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
         <v>11</v>
       </c>
-      <c r="X10" t="n">
-        <v>15.5</v>
-      </c>
       <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU10" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY10" t="n">
         <v>19</v>
       </c>
-      <c r="AB10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="BA10" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>QLdg8mmJ</t>
+          <t>GGtoUulo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2350,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Alberts JDFS</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.12</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>2.62</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
         <v>12</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="W11" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="X11" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
         <v>26</v>
       </c>
-      <c r="AA11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AM11" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.35</v>
+        <v>81</v>
       </c>
       <c r="AX11" t="n">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C8BSPIJt</t>
+          <t>YVTenuAT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2532,170 +2548,170 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
+        <v>15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>13</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
         <v>11</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH12" t="n">
         <v>12</v>
       </c>
-      <c r="Y12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK12" t="n">
         <v>23</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AL12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
         <v>19</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB12" t="n">
         <v>51</v>
       </c>
-      <c r="AW12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>151</v>
-      </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2704,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kp5J7zhK</t>
+          <t>vkSujNA4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2719,172 +2735,174 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al-Duhail</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.57</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>4.65</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
-        <v>2.72</v>
+        <v>2.3</v>
       </c>
       <c r="S13" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
         <v>2.5</v>
       </c>
       <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
         <v>21</v>
       </c>
-      <c r="X13" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>80</v>
-      </c>
       <c r="AA13" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH13" t="n">
         <v>13</v>
       </c>
-      <c r="AF13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AI13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>12</v>
       </c>
-      <c r="AI13" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK13" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO13" t="n">
         <v>11</v>
       </c>
-      <c r="AM13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>24</v>
-      </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.95</v>
+        <v>351</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="BC13" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD13" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AymU6lCj</t>
+          <t>hGAStJXj</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2894,56 +2912,56 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Uthai Thani</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Port MTI FC</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>1.57</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.9</v>
+        <v>5.75</v>
       </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>2.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>2.42</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>3.95</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
         <v>2.15</v>
@@ -2952,117 +2970,121 @@
         <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
+        <v>8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
         <v>13</v>
       </c>
-      <c r="X14" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA14" t="n">
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI14" t="n">
         <v>29</v>
       </c>
-      <c r="AB14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP14" t="n">
         <v>17</v>
       </c>
-      <c r="AL14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP14" t="n">
+      <c r="AQ14" t="n">
         <v>23</v>
       </c>
-      <c r="AQ14" t="n">
-        <v>90</v>
-      </c>
       <c r="AR14" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="AX14" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>175</v>
-      </c>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>vcrUAcDO</t>
+          <t>G2FDQ06b</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3072,175 +3094,175 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Muang Thong Utd</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bangkok Utd</t>
+          <t>Puskas Academy</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
+        <v>12</v>
+      </c>
+      <c r="X15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI15" t="n">
         <v>11</v>
       </c>
-      <c r="X15" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>14</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AM15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>19</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>50</v>
-      </c>
       <c r="BA15" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="BB15" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC15" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>126</v>
+      </c>
       <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EkuvK9MU</t>
+          <t>0zmpGTWG</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3250,110 +3272,110 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>North East Utd</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T16" t="n">
         <v>3.25</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X16" t="n">
         <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
@@ -3365,64 +3387,60 @@
         <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
         <v>41</v>
       </c>
       <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
         <v>67</v>
       </c>
-      <c r="AS16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>151</v>
-      </c>
       <c r="BC16" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>301</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8tAe0jwp</t>
+          <t>8vifCQbE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3432,22 +3450,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -3457,154 +3475,150 @@
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>11.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="S17" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI17" t="n">
         <v>15</v>
       </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI17" t="n">
+      <c r="AJ17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO17" t="n">
         <v>13</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>15</v>
-      </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AR17" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>4.75</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>4.7</v>
       </c>
       <c r="AY17" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>18.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>126</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>G6D3bU7d</t>
+          <t>QLdg8mmJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3619,160 +3633,174 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Yeni Malatyaspor</t>
+          <t>Alberts JDFS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="W18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="X18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z18" t="n">
         <v>26</v>
       </c>
-      <c r="H18" t="n">
+      <c r="AA18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE18" t="n">
         <v>10</v>
       </c>
-      <c r="I18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J18" t="n">
-        <v>19</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W18" t="n">
-        <v>41</v>
-      </c>
-      <c r="X18" t="n">
-        <v>101</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="AF18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW18" t="n">
         <v>51</v>
       </c>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>3</v>
-      </c>
       <c r="AX18" t="n">
-        <v>4.33</v>
+        <v>4.35</v>
       </c>
       <c r="AY18" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA18" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>150</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OjaSazmD</t>
+          <t>C8BSPIJt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3787,169 +3815,2155 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
         <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>7.75</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.4</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.45</v>
-      </c>
       <c r="T19" t="n">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="U19" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
         <v>29</v>
       </c>
-      <c r="AA19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>37</v>
-      </c>
       <c r="AC19" t="n">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>700</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK19" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
       </c>
       <c r="AQ19" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.32</v>
+        <v>2.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.7</v>
+        <v>81</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>4.75</v>
       </c>
       <c r="AY19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>23</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>75</v>
-      </c>
       <c r="BA19" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="BC19" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD19" t="n">
         <v>81</v>
       </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kp5J7zhK</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>QATAR - QSL</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Al Arabi</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Al-Duhail</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>21</v>
+      </c>
+      <c r="X20" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>500</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>32</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>110</v>
+      </c>
+      <c r="BD20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>zJAvMrif</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>bg5HQtrg</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>15</v>
+      </c>
+      <c r="X22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AymU6lCj</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Uthai Thani</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Port MTI FC</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W23" t="n">
+        <v>15</v>
+      </c>
+      <c r="X23" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>175</v>
+      </c>
+      <c r="BD23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vcrUAcDO</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W24" t="n">
+        <v>11</v>
+      </c>
+      <c r="X24" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>70</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>tbzXU0bt</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Rayong FC</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nakhon Pathom</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X25" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>8632KwYA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>9</v>
+      </c>
+      <c r="X26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>6PyWLViI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>17</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>21</v>
+      </c>
+      <c r="X27" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>6cgP7YpA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7</v>
+      </c>
+      <c r="X28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OjaSazmD</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>reSv4Vyq</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Dibba Al Hisn</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Bani Yas</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>500</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>45</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>150</v>
+      </c>
+      <c r="BD30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD30"/>
+  <dimension ref="A1:BD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
@@ -765,16 +765,16 @@
         <v>1.91</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.5</v>
@@ -795,7 +795,7 @@
         <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X2" t="n">
         <v>41</v>
@@ -816,10 +816,10 @@
         <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>9</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UsqWnbLa</t>
+          <t>C2KEmK6l</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,59 +910,59 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lok. Plovdiv</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -971,73 +971,73 @@
         <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>1250</v>
+        <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
@@ -1049,40 +1049,40 @@
         <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA3" t="n">
         <v>51</v>
       </c>
-      <c r="AX3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD3" t="n">
         <v>126</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ILntZCLH</t>
+          <t>4npEqmsB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,173 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>AZERBAIJAN - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Sabail</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ostrava</t>
+          <t>Qarabag</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>1.24</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.67</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.37</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>300</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="AC4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>450</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BA4" t="n">
         <v>12</v>
       </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>41</v>
-      </c>
       <c r="BB4" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>81</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zaQVxbnd</t>
+          <t>MHuOlKjm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1268,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
         <v>3.4</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.2</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="n">
         <v>13</v>
       </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH5" t="n">
         <v>23</v>
       </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AI5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AO5" t="n">
         <v>6</v>
       </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR5" t="n">
         <v>51</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB5" t="n">
         <v>301</v>
       </c>
-      <c r="AH5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ShDH01v3</t>
+          <t>ILntZCLH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1461,78 +1455,78 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W6" t="n">
         <v>9.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8</v>
-      </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1541,40 +1535,40 @@
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
         <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
@@ -1592,43 +1586,43 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB6" t="n">
         <v>51</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BC6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD6" t="n">
         <v>81</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rFKlCFKU</t>
+          <t>zaQVxbnd</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,55 +1642,55 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
         <v>3.4</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
@@ -1705,28 +1699,28 @@
         <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1738,67 +1732,67 @@
         <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
         <v>34</v>
       </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC7" t="n">
         <v>201</v>
@@ -1810,7 +1804,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8t4uLzpJ</t>
+          <t>ShDH01v3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,165 +1819,165 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>15</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY8" t="n">
         <v>17</v>
       </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
         <v>81</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1986,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S6CtlZD5</t>
+          <t>rFKlCFKU</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,174 +2001,174 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.38</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
-        <v>7.5</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.91</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>13</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
         <v>4</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W9" t="n">
-        <v>17</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AO9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>41</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY9" t="n">
         <v>21</v>
       </c>
-      <c r="Z9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AZ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA9" t="n">
         <v>67</v>
       </c>
-      <c r="AG9" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ9" t="n">
+      <c r="BB9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD9" t="n">
         <v>151</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>M55knDrI</t>
+          <t>8t4uLzpJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,169 +2188,169 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.7</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>2.15</v>
       </c>
       <c r="S10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.62</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>2.2</v>
       </c>
-      <c r="U10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
         <v>41</v>
       </c>
-      <c r="AC10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
         <v>21</v>
       </c>
-      <c r="AF10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
       </c>
       <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
         <v>41</v>
       </c>
-      <c r="AN10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
         <v>101</v>
       </c>
-      <c r="AS10" t="n">
-        <v>351</v>
-      </c>
       <c r="AT10" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GGtoUulo</t>
+          <t>S6CtlZD5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,41 +2360,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>1.38</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>7.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2409,136 +2403,136 @@
         <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
       </c>
       <c r="AD11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI11" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AJ11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO11" t="n">
         <v>41</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AP11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>151</v>
       </c>
-      <c r="AH11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AR11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>19</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="BA11" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB11" t="n">
         <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>81</v>
       </c>
       <c r="BC11" t="n">
         <v>151</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YVTenuAT</t>
+          <t>M55knDrI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,77 +2542,77 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>2.7</v>
       </c>
       <c r="R12" t="n">
-        <v>2.35</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="T12" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>11</v>
@@ -2627,100 +2621,100 @@
         <v>29</v>
       </c>
       <c r="AA12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
         <v>21</v>
       </c>
-      <c r="AB12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>17</v>
       </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AP12" t="n">
         <v>34</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
         <v>101</v>
       </c>
-      <c r="AH12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ12" t="n">
+      <c r="AS12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU12" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7</v>
-      </c>
       <c r="AV12" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AX12" t="n">
         <v>4.75</v>
       </c>
       <c r="AY12" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ12" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC12" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>vkSujNA4</t>
+          <t>zFKwJ9MG</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,170 +2724,170 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="V13" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W13" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
         <v>11</v>
       </c>
-      <c r="X13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AH13" t="n">
         <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AP13" t="n">
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
       </c>
       <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA13" t="n">
         <v>101</v>
       </c>
-      <c r="AT13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>51</v>
-      </c>
       <c r="BB13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2896,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hGAStJXj</t>
+          <t>GGtoUulo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,31 +2916,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2961,10 +2955,10 @@
         <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="n">
         <v>1.33</v>
@@ -2973,25 +2967,25 @@
         <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="n">
         <v>23</v>
@@ -3000,82 +2994,82 @@
         <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM14" t="n">
         <v>29</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK14" t="n">
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
         <v>51</v>
       </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT14" t="n">
         <v>3.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="n">
         <v>81</v>
       </c>
       <c r="AX14" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3078,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>G2FDQ06b</t>
+          <t>YVTenuAT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,175 +3088,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Puskas Academy</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
+        <v>17</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W15" t="n">
         <v>13</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>12</v>
       </c>
       <c r="X15" t="n">
         <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="n">
         <v>7</v>
       </c>
       <c r="AE15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI15" t="n">
         <v>13</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AJ15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>41</v>
       </c>
-      <c r="AG15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
+      <c r="AR15" t="n">
         <v>51</v>
       </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>351</v>
+      </c>
       <c r="AX15" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
         <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB15" t="n">
         <v>51</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD15" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0zmpGTWG</t>
+          <t>vkSujNA4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3272,74 +3270,74 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>North East Utd</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L16" t="n">
         <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="S16" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T16" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V16" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
         <v>12</v>
@@ -3351,40 +3349,40 @@
         <v>21</v>
       </c>
       <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
         <v>17</v>
       </c>
-      <c r="AB16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>13</v>
-      </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>12</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11</v>
       </c>
       <c r="AK16" t="n">
         <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
         <v>26</v>
@@ -3393,35 +3391,37 @@
         <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR16" t="n">
         <v>41</v>
       </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
       <c r="AS16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV16" t="n">
         <v>41</v>
       </c>
-      <c r="AW16" t="inlineStr"/>
+      <c r="AW16" t="n">
+        <v>351</v>
+      </c>
       <c r="AX16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ16" t="n">
         <v>21</v>
@@ -3430,17 +3430,19 @@
         <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
       </c>
-      <c r="BD16" t="inlineStr"/>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8vifCQbE</t>
+          <t>hGAStJXj</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3455,170 +3457,174 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.55</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T17" t="n">
         <v>3.25</v>
       </c>
-      <c r="I17" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.15</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V17" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
         <v>11</v>
       </c>
-      <c r="X17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>30</v>
-      </c>
       <c r="AA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
         <v>19</v>
       </c>
-      <c r="AB17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW17" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>81</v>
+      </c>
       <c r="AX17" t="n">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="BA17" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="BC17" t="n">
-        <v>200</v>
-      </c>
-      <c r="BD17" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>QLdg8mmJ</t>
+          <t>2NuT2gcc</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3628,179 +3634,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Alberts JDFS</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.12</v>
+        <v>2.55</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>2.21</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
         <v>26</v>
       </c>
       <c r="AA18" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO18" t="n">
         <v>15</v>
       </c>
-      <c r="AD18" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>14</v>
-      </c>
       <c r="AP18" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA18" t="n">
         <v>51</v>
       </c>
-      <c r="AX18" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>37</v>
-      </c>
       <c r="BB18" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="BC18" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C8BSPIJt</t>
+          <t>rcoUkn2B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3810,32 +3816,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J19" t="n">
         <v>3.2</v>
@@ -3844,40 +3850,40 @@
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
         <v>12</v>
@@ -3895,37 +3901,37 @@
         <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI19" t="n">
         <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
         <v>4.5</v>
@@ -3937,16 +3943,16 @@
         <v>23</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="n">
         <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
         <v>8</v>
@@ -3961,19 +3967,19 @@
         <v>4.75</v>
       </c>
       <c r="AY19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
         <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD19" t="n">
         <v>81</v>
@@ -3982,7 +3988,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kp5J7zhK</t>
+          <t>hCCApCsT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3992,177 +3998,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>RW Essen</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Al-Duhail</t>
+          <t>Sandhausen</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.57</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
-        <v>4.65</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>2.72</v>
+        <v>2.25</v>
       </c>
       <c r="S20" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="T20" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="U20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V20" t="n">
         <v>2.5</v>
       </c>
       <c r="W20" t="n">
+        <v>12</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
         <v>21</v>
       </c>
-      <c r="X20" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>37</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>32</v>
-      </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH20" t="n">
         <v>13</v>
       </c>
-      <c r="AF20" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>12</v>
-      </c>
       <c r="AI20" t="n">
-        <v>10.75</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.1</v>
+        <v>4.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AU20" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AV20" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AW20" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="AX20" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
-        <v>7.3</v>
+        <v>13</v>
       </c>
       <c r="AZ20" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
-        <v>19.5</v>
+        <v>41</v>
       </c>
       <c r="BB20" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="BC20" t="n">
-        <v>110</v>
-      </c>
-      <c r="BD20" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>zJAvMrif</t>
+          <t>G6HojGDi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4177,174 +4185,174 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>SG Dynamo Dresden</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T21" t="n">
         <v>3.25</v>
       </c>
-      <c r="I21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.6</v>
-      </c>
       <c r="U21" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="V21" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="X21" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AB21" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.1</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AH21" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM21" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="AP21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AR21" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY21" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="BC21" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="BD21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bg5HQtrg</t>
+          <t>bkZy1XR9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4359,36 +4367,36 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L22" t="n">
         <v>4.75</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.2</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -4403,10 +4411,10 @@
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S22" t="n">
         <v>1.33</v>
@@ -4415,28 +4423,28 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W22" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AA22" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AB22" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
         <v>13</v>
@@ -4448,46 +4456,46 @@
         <v>15</v>
       </c>
       <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
         <v>51</v>
       </c>
-      <c r="AG22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI22" t="n">
+      <c r="AL22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO22" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO22" t="n">
+      <c r="AP22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>26</v>
       </c>
-      <c r="AP22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>81</v>
-      </c>
       <c r="AR22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS22" t="n">
         <v>101</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>201</v>
       </c>
       <c r="AT22" t="n">
         <v>3.25</v>
@@ -4502,22 +4510,22 @@
         <v>81</v>
       </c>
       <c r="AX22" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BC22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4526,7 +4534,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AymU6lCj</t>
+          <t>G2FDQ06b</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4536,175 +4544,175 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Uthai Thani</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Port MTI FC</t>
+          <t>Puskas Academy</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.75</v>
       </c>
-      <c r="I23" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.15</v>
-      </c>
       <c r="K23" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>2.32</v>
+        <v>2.63</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.62</v>
       </c>
-      <c r="R23" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.6</v>
-      </c>
       <c r="V23" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="n">
         <v>13</v>
       </c>
-      <c r="Z23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AD23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AH23" t="n">
         <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AK23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL23" t="n">
         <v>15</v>
       </c>
-      <c r="AL23" t="n">
-        <v>13</v>
-      </c>
       <c r="AM23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="n">
-        <v>3.85</v>
+        <v>4.33</v>
       </c>
       <c r="AY23" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB23" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BC23" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="BD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vcrUAcDO</t>
+          <t>0zmpGTWG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4714,175 +4722,175 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Muang Thong Utd</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bangkok Utd</t>
+          <t>North East Utd</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.72</v>
+        <v>2.35</v>
       </c>
       <c r="H24" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L24" t="n">
         <v>3.25</v>
       </c>
-      <c r="K24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.95</v>
-      </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S24" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="T24" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="U24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V24" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="W24" t="n">
+        <v>10</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH24" t="n">
         <v>11</v>
       </c>
-      <c r="X24" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA24" t="n">
+      <c r="AI24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL24" t="n">
         <v>21</v>
       </c>
-      <c r="AB24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>18</v>
-      </c>
       <c r="AM24" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AO24" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="AU24" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="BB24" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="BC24" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tbzXU0bt</t>
+          <t>8vifCQbE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4892,175 +4900,175 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Nakhon Pathom</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J25" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="K25" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L25" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>7.2</v>
+        <v>11.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="S25" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="T25" t="n">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="U25" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="V25" t="n">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="W25" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="X25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO25" t="n">
         <v>11.75</v>
       </c>
-      <c r="Y25" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD25" t="n">
+      <c r="AP25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU25" t="n">
         <v>6.2</v>
       </c>
-      <c r="AE25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>7</v>
-      </c>
       <c r="AV25" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AY25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB25" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="BC25" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="BD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8632KwYA</t>
+          <t>4ArkQwLP</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5075,174 +5083,166 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>LITHUANIA - A LYGA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Suduva</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>BE1 NFA</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>1.22</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="I26" t="n">
-        <v>2.63</v>
+        <v>11.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="L26" t="n">
-        <v>3.25</v>
+        <v>9.25</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>11.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>3.82</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="S26" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T26" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.73</v>
+        <v>2.32</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="W26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD26" t="n">
         <v>9</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AE26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>13</v>
       </c>
-      <c r="Y26" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH26" t="n">
+      <c r="AR26" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU26" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>251</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="n">
-        <v>4.75</v>
+        <v>11.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="AZ26" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="BA26" t="n">
-        <v>51</v>
+        <v>450</v>
       </c>
       <c r="BB26" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>301</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6PyWLViI</t>
+          <t>2HOIie3D</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5257,174 +5257,174 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.53</v>
       </c>
-      <c r="R27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W27" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="X27" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB27" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF27" t="n">
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>9</v>
       </c>
-      <c r="AI27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AO27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA27" t="n">
         <v>34</v>
       </c>
-      <c r="AP27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV27" t="n">
+      <c r="BB27" t="n">
         <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>276</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>41</v>
       </c>
       <c r="BC27" t="n">
         <v>101</v>
       </c>
       <c r="BD27" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6cgP7YpA</t>
+          <t>C8BSPIJt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5434,128 +5434,128 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="S28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB28" t="n">
         <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
         <v>6.5</v>
       </c>
       <c r="AE28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO28" t="n">
         <v>15</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>11</v>
       </c>
       <c r="AP28" t="n">
         <v>23</v>
@@ -5570,43 +5570,43 @@
         <v>151</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX28" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY28" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB28" t="n">
         <v>67</v>
       </c>
-      <c r="BB28" t="n">
-        <v>101</v>
-      </c>
       <c r="BC28" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD28" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OjaSazmD</t>
+          <t>Kp5J7zhK</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5616,354 +5616,1980 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Al Arabi</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Al-Duhail</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.57</v>
+        <v>5.7</v>
       </c>
       <c r="H29" t="n">
-        <v>2.77</v>
+        <v>4.65</v>
       </c>
       <c r="I29" t="n">
-        <v>2.95</v>
+        <v>1.45</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="K29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L29" t="n">
         <v>1.9</v>
       </c>
-      <c r="L29" t="n">
-        <v>3.55</v>
-      </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="P29" t="n">
-        <v>2.42</v>
+        <v>5.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.25</v>
+        <v>1.37</v>
       </c>
       <c r="R29" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.5</v>
       </c>
-      <c r="S29" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.85</v>
-      </c>
       <c r="V29" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="W29" t="n">
+        <v>26</v>
+      </c>
+      <c r="X29" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU29" t="n">
         <v>6.8</v>
       </c>
-      <c r="X29" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC29" t="n">
+      <c r="AV29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>500</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY29" t="n">
         <v>6.7</v>
       </c>
-      <c r="AD29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR29" t="n">
+      <c r="AZ29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>32</v>
+      </c>
+      <c r="BC29" t="n">
         <v>110</v>
       </c>
-      <c r="AS29" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>120</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>350</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>81</v>
-      </c>
+      <c r="BD29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>MwLOpp46</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>zJAvMrif</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X31" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>bg5HQtrg</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
+        <v>13</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2</v>
+      </c>
+      <c r="W32" t="n">
+        <v>15</v>
+      </c>
+      <c r="X32" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vcrUAcDO</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Muang Thong Utd</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Bangkok Utd</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W33" t="n">
+        <v>11</v>
+      </c>
+      <c r="X33" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>70</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>tbzXU0bt</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Rayong FC</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Nakhon Pathom</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X34" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>8632KwYA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>11</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2</v>
+      </c>
+      <c r="W35" t="n">
+        <v>9</v>
+      </c>
+      <c r="X35" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>6PyWLViI</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N36" t="n">
+        <v>17</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>21</v>
+      </c>
+      <c r="X36" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>6cgP7YpA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W37" t="n">
+        <v>7</v>
+      </c>
+      <c r="X37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>fB7B3Iml</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Dyn. Kyiv</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>16</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L38" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X38" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>300</v>
+      </c>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>900</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>150</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>reSv4Vyq</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>23/11/2024</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>09:40</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Dibba Al Hisn</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Bani Yas</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G39" t="n">
         <v>4</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H39" t="n">
         <v>3.9</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I39" t="n">
         <v>1.75</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J39" t="n">
         <v>4.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K39" t="n">
         <v>2.35</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L39" t="n">
         <v>2.25</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M39" t="n">
         <v>1.04</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N39" t="n">
         <v>8.75</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O39" t="n">
         <v>1.2</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P39" t="n">
         <v>4.1</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q39" t="n">
         <v>1.6</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R39" t="n">
         <v>2.22</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S39" t="n">
         <v>1.3</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T39" t="n">
         <v>3.2</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U39" t="n">
         <v>1.6</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V39" t="n">
         <v>2.2</v>
       </c>
-      <c r="W30" t="n">
+      <c r="W39" t="n">
         <v>14.5</v>
       </c>
-      <c r="X30" t="n">
+      <c r="X39" t="n">
         <v>24</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Y39" t="n">
         <v>13</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="Z39" t="n">
         <v>60</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AA39" t="n">
         <v>32</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AB39" t="n">
         <v>32</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AC39" t="n">
         <v>8.75</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AD39" t="n">
         <v>7.8</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AE39" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AF39" t="n">
         <v>50</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AG39" t="n">
         <v>300</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AH39" t="n">
         <v>9.25</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AI39" t="n">
         <v>9.75</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AJ39" t="n">
         <v>8.25</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AK39" t="n">
         <v>14.5</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AL39" t="n">
         <v>12.5</v>
       </c>
-      <c r="AM30" t="n">
+      <c r="AM39" t="n">
         <v>20</v>
       </c>
-      <c r="AN30" t="n">
+      <c r="AN39" t="n">
         <v>6.1</v>
       </c>
-      <c r="AO30" t="n">
+      <c r="AO39" t="n">
         <v>21</v>
       </c>
-      <c r="AP30" t="n">
+      <c r="AP39" t="n">
         <v>24</v>
       </c>
-      <c r="AQ30" t="n">
+      <c r="AQ39" t="n">
         <v>110</v>
       </c>
-      <c r="AR30" t="n">
+      <c r="AR39" t="n">
         <v>120</v>
       </c>
-      <c r="AS30" t="n">
+      <c r="AS39" t="n">
         <v>250</v>
       </c>
-      <c r="AT30" t="n">
+      <c r="AT39" t="n">
         <v>3.2</v>
       </c>
-      <c r="AU30" t="n">
+      <c r="AU39" t="n">
         <v>6.9</v>
       </c>
-      <c r="AV30" t="n">
+      <c r="AV39" t="n">
         <v>50</v>
       </c>
-      <c r="AW30" t="n">
+      <c r="AW39" t="n">
         <v>500</v>
       </c>
-      <c r="AX30" t="n">
+      <c r="AX39" t="n">
         <v>3.85</v>
       </c>
-      <c r="AY30" t="n">
+      <c r="AY39" t="n">
         <v>8.25</v>
       </c>
-      <c r="AZ30" t="n">
+      <c r="AZ39" t="n">
         <v>15</v>
       </c>
-      <c r="BA30" t="n">
+      <c r="BA39" t="n">
         <v>26</v>
       </c>
-      <c r="BB30" t="n">
+      <c r="BB39" t="n">
         <v>45</v>
       </c>
-      <c r="BC30" t="n">
+      <c r="BC39" t="n">
         <v>150</v>
       </c>
-      <c r="BD30" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD39"/>
+  <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>10</v>
@@ -834,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN2" t="n">
         <v>8</v>
@@ -888,10 +888,10 @@
         <v>19</v>
       </c>
       <c r="BB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="n">
         <v>160</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4npEqmsB</t>
+          <t>UVEK8CEk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,173 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AZERBAIJAN - PREMIER LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sabail</t>
+          <t>Admira</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Qarabag</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH4" t="n">
         <v>10</v>
       </c>
-      <c r="H4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W4" t="n">
-        <v>29</v>
-      </c>
-      <c r="X4" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="AI4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL4" t="n">
         <v>32</v>
       </c>
-      <c r="Z4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AM4" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>27</v>
       </c>
-      <c r="AN4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>450</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>400</v>
-      </c>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>14.5</v>
-      </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="BB4" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="BC4" t="n">
-        <v>175</v>
-      </c>
-      <c r="BD4" t="inlineStr"/>
+        <v>350</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MHuOlKjm</t>
+          <t>WfeFUgy9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1268,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Kapfenberg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>5.25</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
         <v>15</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L5" t="n">
-        <v>12</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7</v>
-      </c>
       <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
       </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
+      <c r="AK5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
         <v>9</v>
       </c>
-      <c r="AD5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6</v>
-      </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AV5" t="n">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="AW5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>5.7</v>
       </c>
       <c r="AY5" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="BA5" t="n">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>150</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ILntZCLH</t>
+          <t>4npEqmsB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1450,179 +1456,175 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>AZERBAIJAN - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jablonec</t>
+          <t>Sabail</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ostrava</t>
+          <t>Qarabag</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R6" t="n">
         <v>2.6</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>35</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AL6" t="n">
         <v>10</v>
       </c>
-      <c r="Z6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>19</v>
-      </c>
       <c r="AM6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>10.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>3.7</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>501</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="AY6" t="n">
-        <v>13</v>
+        <v>5.2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>11.75</v>
       </c>
       <c r="BB6" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>zaQVxbnd</t>
+          <t>MHuOlKjm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1632,179 +1634,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
         <v>3.5</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.2</v>
-      </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA7" t="n">
         <v>13</v>
       </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH7" t="n">
         <v>23</v>
       </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AI7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO7" t="n">
         <v>6</v>
       </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR7" t="n">
         <v>51</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB7" t="n">
         <v>301</v>
       </c>
-      <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
+      <c r="BD7" t="n">
         <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ShDH01v3</t>
+          <t>ILntZCLH</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1819,78 +1821,78 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Jablonec</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W8" t="n">
         <v>9.5</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8</v>
-      </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
         <v>21</v>
@@ -1899,40 +1901,40 @@
         <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
         <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
         <v>15</v>
@@ -1950,43 +1952,43 @@
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB8" t="n">
         <v>51</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD8" t="n">
         <v>81</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rFKlCFKU</t>
+          <t>zaQVxbnd</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2006,85 +2008,85 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sheffield Wed</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
         <v>1.95</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
         <v>3.4</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.03</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2093,73 +2095,73 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>11</v>
       </c>
-      <c r="AI9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ9" t="n">
         <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2168,7 +2170,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8t4uLzpJ</t>
+          <t>ShDH01v3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2183,165 +2185,165 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>15</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y10" t="n">
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH10" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AI10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY10" t="n">
         <v>17</v>
       </c>
-      <c r="AA10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
         <v>81</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2350,7 +2352,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S6CtlZD5</t>
+          <t>rFKlCFKU</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2365,174 +2367,174 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Sheffield Wed</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.38</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>7.5</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.91</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>13</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
         <v>4</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W11" t="n">
-        <v>17</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>41</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY11" t="n">
         <v>21</v>
       </c>
-      <c r="Z11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AZ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA11" t="n">
         <v>67</v>
       </c>
-      <c r="AG11" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ11" t="n">
+      <c r="BB11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD11" t="n">
         <v>151</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>M55knDrI</t>
+          <t>8t4uLzpJ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2552,169 +2554,169 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="K12" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.7</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>2.15</v>
       </c>
       <c r="S12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.62</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>2.2</v>
       </c>
-      <c r="U12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
         <v>41</v>
       </c>
-      <c r="AC12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
         <v>21</v>
       </c>
-      <c r="AF12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
         <v>29</v>
       </c>
       <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR12" t="n">
         <v>41</v>
       </c>
-      <c r="AN12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
         <v>101</v>
       </c>
-      <c r="AS12" t="n">
-        <v>351</v>
-      </c>
       <c r="AT12" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BA12" t="n">
         <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>zFKwJ9MG</t>
+          <t>S6CtlZD5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2724,179 +2726,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.62</v>
+        <v>7.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="I13" t="n">
-        <v>5.25</v>
+        <v>1.38</v>
       </c>
       <c r="J13" t="n">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>5.5</v>
+        <v>1.91</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W13" t="n">
+        <v>17</v>
+      </c>
+      <c r="X13" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH13" t="n">
         <v>7</v>
       </c>
-      <c r="X13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="AI13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AK13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL13" t="n">
         <v>12</v>
       </c>
-      <c r="AA13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
+      <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO13" t="n">
         <v>41</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>41</v>
       </c>
-      <c r="AN13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP13" t="n">
+      <c r="AQ13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>19</v>
       </c>
-      <c r="AQ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="BA13" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC13" t="n">
         <v>151</v>
       </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB13" t="n">
+      <c r="BD13" t="n">
         <v>126</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GGtoUulo</t>
+          <t>M55knDrI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2906,179 +2908,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="L14" t="n">
         <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI14" t="n">
         <v>12</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>19</v>
       </c>
       <c r="AJ14" t="n">
         <v>12</v>
       </c>
       <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
         <v>34</v>
       </c>
-      <c r="AL14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP14" t="n">
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY14" t="n">
         <v>19</v>
       </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
+      <c r="AZ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD14" t="n">
         <v>126</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>YVTenuAT</t>
+          <t>zFKwJ9MG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3088,170 +3090,170 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.25</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L15" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE15" t="n">
         <v>17</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH15" t="n">
         <v>13</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AI15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP15" t="n">
         <v>19</v>
       </c>
-      <c r="Y15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
       </c>
       <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA15" t="n">
         <v>101</v>
       </c>
-      <c r="AT15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>41</v>
-      </c>
       <c r="BB15" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BC15" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3260,7 +3262,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>vkSujNA4</t>
+          <t>GGtoUulo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3280,97 +3282,97 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.57</v>
       </c>
-      <c r="R16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V16" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X16" t="n">
         <v>11</v>
-      </c>
-      <c r="X16" t="n">
-        <v>12</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
         <v>15</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
         <v>19</v>
@@ -3382,40 +3384,40 @@
         <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO16" t="n">
         <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
         <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AX16" t="n">
         <v>5.5</v>
@@ -3424,16 +3426,16 @@
         <v>17</v>
       </c>
       <c r="AZ16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA16" t="n">
         <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3442,7 +3444,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hGAStJXj</t>
+          <t>YVTenuAT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3462,160 +3464,160 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.53</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
         <v>2.4</v>
       </c>
       <c r="L17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>19</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P17" t="n">
         <v>5.5</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
-        <v>13</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="R17" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="T17" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="n">
         <v>7.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI17" t="n">
         <v>15</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AJ17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>41</v>
       </c>
-      <c r="AG17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI17" t="n">
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA17" t="n">
         <v>34</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL17" t="n">
+      <c r="BB17" t="n">
         <v>41</v>
       </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
+      <c r="BC17" t="n">
         <v>81</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>201</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3624,7 +3626,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2NuT2gcc</t>
+          <t>vkSujNA4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3634,161 +3636,161 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Munich 1860</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L18" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
+        <v>17</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W18" t="n">
         <v>11</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
         <v>9</v>
       </c>
-      <c r="X18" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO18" t="n">
         <v>10</v>
       </c>
-      <c r="Z18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA18" t="n">
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>21</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>23</v>
       </c>
       <c r="BA18" t="n">
         <v>51</v>
@@ -3797,7 +3799,7 @@
         <v>67</v>
       </c>
       <c r="BC18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3806,7 +3808,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rcoUkn2B</t>
+          <t>hGAStJXj</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3816,143 +3818,143 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>1.53</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>8</v>
       </c>
       <c r="X19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
         <v>12</v>
       </c>
-      <c r="Y19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AB19" t="n">
         <v>23</v>
       </c>
-      <c r="AA19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>29</v>
-      </c>
       <c r="AC19" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AL19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>23</v>
       </c>
-      <c r="AM19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>51</v>
-      </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS19" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU19" t="n">
         <v>8</v>
@@ -3964,19 +3966,19 @@
         <v>81</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC19" t="n">
         <v>201</v>
@@ -3988,7 +3990,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hCCApCsT</t>
+          <t>2NuT2gcc</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4008,160 +4010,160 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RW Essen</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sandhausen</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL20" t="n">
         <v>21</v>
       </c>
-      <c r="AC20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK20" t="n">
+      <c r="AM20" t="n">
         <v>29</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>23</v>
       </c>
       <c r="AN20" t="n">
         <v>4.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
         <v>51</v>
       </c>
-      <c r="AS20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>41</v>
-      </c>
       <c r="AW20" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AX20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC20" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD20" t="n">
         <v>81</v>
@@ -4170,7 +4172,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>G6HojGDi</t>
+          <t>rcoUkn2B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4190,136 +4192,136 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SG Dynamo Dresden</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="J21" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W21" t="n">
+        <v>8</v>
+      </c>
+      <c r="X21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
         <v>15</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>9</v>
-      </c>
-      <c r="X21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y21" t="n">
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="AI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO21" t="n">
         <v>15</v>
       </c>
-      <c r="AB21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>10</v>
-      </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -4328,10 +4330,10 @@
         <v>81</v>
       </c>
       <c r="AX21" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AY21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
@@ -4343,7 +4345,7 @@
         <v>81</v>
       </c>
       <c r="BC21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD21" t="n">
         <v>81</v>
@@ -4352,7 +4354,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bkZy1XR9</t>
+          <t>hCCApCsT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4372,160 +4374,160 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>RW Essen</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Sandhausen</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R22" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U22" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="V22" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X22" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB22" t="n">
         <v>21</v>
       </c>
       <c r="AC22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH22" t="n">
         <v>13</v>
       </c>
-      <c r="AD22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF22" t="n">
+      <c r="AI22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>41</v>
       </c>
-      <c r="AG22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK22" t="n">
+      <c r="AR22" t="n">
         <v>51</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>41</v>
       </c>
       <c r="AS22" t="n">
         <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB22" t="n">
         <v>51</v>
       </c>
-      <c r="AW22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>81</v>
-      </c>
       <c r="BC22" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4534,7 +4536,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>G2FDQ06b</t>
+          <t>G6HojGDi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4544,47 +4546,47 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>SG Dynamo Dresden</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Puskas Academy</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
@@ -4593,10 +4595,10 @@
         <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
         <v>1.33</v>
@@ -4611,28 +4613,28 @@
         <v>2.2</v>
       </c>
       <c r="W23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AB23" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
@@ -4644,40 +4646,40 @@
         <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP23" t="n">
         <v>19</v>
       </c>
-      <c r="AL23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR23" t="n">
         <v>51</v>
       </c>
-      <c r="AR23" t="n">
-        <v>67</v>
-      </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT23" t="n">
         <v>3.25</v>
@@ -4688,31 +4690,35 @@
       <c r="AV23" t="n">
         <v>51</v>
       </c>
-      <c r="AW23" t="inlineStr"/>
+      <c r="AW23" t="n">
+        <v>81</v>
+      </c>
       <c r="AX23" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BA23" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC23" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD23" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0zmpGTWG</t>
+          <t>bkZy1XR9</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4722,41 +4728,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>North East Utd</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="K24" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L24" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -4771,10 +4777,10 @@
         <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S24" t="n">
         <v>1.33</v>
@@ -4783,114 +4789,118 @@
         <v>3.25</v>
       </c>
       <c r="U24" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V24" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W24" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z24" t="n">
         <v>13</v>
       </c>
-      <c r="Y24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>23</v>
-      </c>
       <c r="AA24" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC24" t="n">
         <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH24" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>15</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>11</v>
-      </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>26</v>
       </c>
-      <c r="AN24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ24" t="n">
+      <c r="AR24" t="n">
         <v>41</v>
       </c>
-      <c r="AR24" t="n">
-        <v>51</v>
-      </c>
       <c r="AS24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT24" t="n">
         <v>3.25</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW24" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>81</v>
+      </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB24" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC24" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD24" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8vifCQbE</t>
+          <t>G2FDQ06b</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4900,175 +4910,175 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Puskas Academy</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.27</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.95</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>3.45</v>
+        <v>2.63</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>11.4</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="R25" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S25" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T25" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U25" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="V25" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="W25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AA25" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI25" t="n">
         <v>11</v>
       </c>
-      <c r="AF25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>18</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM25" t="n">
         <v>23</v>
       </c>
-      <c r="AM25" t="n">
-        <v>25</v>
-      </c>
       <c r="AN25" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>11.75</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AS25" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="n">
-        <v>5.1</v>
+        <v>4.33</v>
       </c>
       <c r="AY25" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA25" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="BB25" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BC25" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4ArkQwLP</t>
+          <t>0zmpGTWG</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5078,171 +5088,175 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LITHUANIA - A LYGA</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Suduva</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>BE1 NFA</t>
+          <t>North East Utd</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.22</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>4.9</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>11.5</v>
+        <v>2.8</v>
       </c>
       <c r="J26" t="n">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>9.25</v>
+        <v>3.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>11.9</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>3.82</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.62</v>
       </c>
-      <c r="R26" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.32</v>
-      </c>
       <c r="V26" t="n">
-        <v>1.58</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>5.8</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AB26" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG26" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>151</v>
+      </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
         <v>29</v>
       </c>
-      <c r="AK26" t="n">
-        <v>300</v>
-      </c>
       <c r="AL26" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="AM26" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.92</v>
+        <v>4.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>5.2</v>
+        <v>13</v>
       </c>
       <c r="AP26" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.77</v>
+        <v>3.25</v>
       </c>
       <c r="AU26" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="n">
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="AY26" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AZ26" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="BA26" t="n">
-        <v>450</v>
+        <v>51</v>
       </c>
       <c r="BB26" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC26" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>126</v>
+      </c>
       <c r="BD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2HOIie3D</t>
+          <t>8vifCQbE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5252,179 +5266,175 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Egersund</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L27" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.75</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>15</v>
+        <v>11.9</v>
       </c>
       <c r="O27" t="n">
         <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="S27" t="n">
         <v>1.3</v>
       </c>
       <c r="T27" t="n">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="U27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V27" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W27" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X27" t="n">
         <v>13</v>
       </c>
-      <c r="X27" t="n">
-        <v>19</v>
-      </c>
       <c r="Y27" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO27" t="n">
         <v>11</v>
       </c>
-      <c r="Z27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>17</v>
-      </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AQ27" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AR27" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AS27" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AV27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>351</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AY27" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA27" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="BB27" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="BC27" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>151</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BD27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C8BSPIJt</t>
+          <t>4ArkQwLP</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5434,179 +5444,171 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>LITHUANIA - A LYGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Suduva</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>BE1 NFA</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L28" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N28" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T28" t="n">
         <v>2.5</v>
       </c>
-      <c r="H28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>11</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U28" t="n">
-        <v>1.73</v>
+        <v>2.32</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="W28" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="Z28" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="n">
         <v>23</v>
       </c>
-      <c r="AA28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB28" t="n">
+      <c r="AI28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>29</v>
       </c>
-      <c r="AC28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE28" t="n">
+      <c r="AK28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>13</v>
       </c>
-      <c r="AF28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>41</v>
-      </c>
       <c r="AR28" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AS28" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>81</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="n">
-        <v>4.75</v>
+        <v>11.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="AZ28" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="BA28" t="n">
-        <v>51</v>
+        <v>450</v>
       </c>
       <c r="BB28" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>81</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Kp5J7zhK</t>
+          <t>2HOIie3D</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5616,177 +5618,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Al-Duhail</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
-        <v>4.65</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="J29" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.9</v>
+        <v>2.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
+        <v>15</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W29" t="n">
+        <v>13</v>
+      </c>
+      <c r="X29" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH29" t="n">
         <v>10</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W29" t="n">
-        <v>26</v>
-      </c>
-      <c r="X29" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AI29" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>11.75</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AM29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO29" t="n">
         <v>17</v>
       </c>
-      <c r="AN29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>28</v>
-      </c>
       <c r="AP29" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AW29" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="AX29" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>6.7</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="BA29" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="BB29" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="BC29" t="n">
-        <v>110</v>
-      </c>
-      <c r="BD29" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MwLOpp46</t>
+          <t>SjdtK9xS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5796,170 +5800,170 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Pogon Szczecin</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="H30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N30" t="n">
+        <v>17</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T30" t="n">
         <v>3.4</v>
       </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N30" t="n">
-        <v>8</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U30" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V30" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="W30" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA30" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB30" t="n">
         <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH30" t="n">
         <v>9.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AP30" t="n">
         <v>23</v>
       </c>
       <c r="AQ30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR30" t="n">
         <v>67</v>
       </c>
       <c r="AS30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW30" t="n">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>17</v>
       </c>
-      <c r="AZ30" t="n">
-        <v>26</v>
-      </c>
       <c r="BA30" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="BB30" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BC30" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD30" t="n">
         <v>81</v>
@@ -5968,7 +5972,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>zJAvMrif</t>
+          <t>vJPiTfHl</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5978,179 +5982,179 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Chrobry Glogow</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.22</v>
+        <v>2.55</v>
       </c>
       <c r="H31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.85</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
         <v>1.44</v>
       </c>
       <c r="T31" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="U31" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X31" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA31" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="AH31" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AM31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AR31" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS31" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY31" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ31" t="n">
         <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BB31" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="BC31" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="BD31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bg5HQtrg</t>
+          <t>Kp5J7zhK</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6160,110 +6164,110 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Al Arabi</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Al-Duhail</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="K32" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="L32" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="R32" t="n">
-        <v>2.1</v>
+        <v>2.82</v>
       </c>
       <c r="S32" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="T32" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U32" t="n">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>2.37</v>
       </c>
       <c r="W32" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="X32" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AA32" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB32" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AD32" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="AE32" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF32" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG32" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH32" t="n">
-        <v>8</v>
+        <v>11.75</v>
       </c>
       <c r="AI32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ32" t="n">
         <v>8.5</v>
@@ -6272,67 +6276,65 @@
         <v>12</v>
       </c>
       <c r="AL32" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AM32" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AN32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO32" t="n">
         <v>26</v>
       </c>
       <c r="AP32" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AQ32" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AR32" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AS32" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV32" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AW32" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="AX32" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AY32" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AZ32" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="BA32" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="BB32" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="BC32" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>81</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="BD32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>vcrUAcDO</t>
+          <t>MwLOpp46</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6342,175 +6344,179 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Muang Thong Utd</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bangkok Utd</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.72</v>
+        <v>2.15</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K33" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L33" t="n">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
         <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
       <c r="R33" t="n">
-        <v>2.07</v>
+        <v>1.78</v>
       </c>
       <c r="S33" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="T33" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="U33" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="V33" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="W33" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AA33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB33" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AC33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU33" t="n">
         <v>8</v>
       </c>
-      <c r="AD33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP33" t="n">
+      <c r="AV33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY33" t="n">
         <v>19</v>
       </c>
-      <c r="AQ33" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AZ33" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="BA33" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BB33" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="BC33" t="n">
-        <v>200</v>
-      </c>
-      <c r="BD33" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>tbzXU0bt</t>
+          <t>zJAvMrif</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6525,123 +6531,123 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Nakhon Pathom</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H34" t="n">
         <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="K34" t="n">
         <v>2.05</v>
       </c>
       <c r="L34" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P34" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S34" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T34" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="U34" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V34" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W34" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="X34" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="Y34" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z34" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA34" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG34" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AH34" t="n">
         <v>9.25</v>
       </c>
       <c r="AI34" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ34" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK34" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM34" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO34" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP34" t="n">
         <v>20</v>
@@ -6656,26 +6662,28 @@
         <v>250</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AU34" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV34" t="n">
         <v>65</v>
       </c>
-      <c r="AW34" t="inlineStr"/>
+      <c r="AW34" t="n">
+        <v>51</v>
+      </c>
       <c r="AX34" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AY34" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AZ34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA34" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB34" t="n">
         <v>120</v>
@@ -6683,12 +6691,14 @@
       <c r="BC34" t="n">
         <v>350</v>
       </c>
-      <c r="BD34" t="inlineStr"/>
+      <c r="BD34" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8632KwYA</t>
+          <t>bg5HQtrg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6703,60 +6713,60 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.63</v>
+        <v>1.62</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L35" t="n">
         <v>2.2</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N35" t="n">
+        <v>13</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T35" t="n">
         <v>3.25</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N35" t="n">
-        <v>11</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.75</v>
       </c>
       <c r="U35" t="n">
         <v>1.73</v>
@@ -6765,31 +6775,31 @@
         <v>2</v>
       </c>
       <c r="W35" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="X35" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC35" t="n">
         <v>13</v>
       </c>
-      <c r="Y35" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>11</v>
-      </c>
       <c r="AD35" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
         <v>41</v>
@@ -6798,79 +6808,79 @@
         <v>201</v>
       </c>
       <c r="AH35" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AI35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL35" t="n">
         <v>13</v>
       </c>
-      <c r="AJ35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK35" t="n">
+      <c r="AM35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO35" t="n">
         <v>26</v>
       </c>
-      <c r="AL35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM35" t="n">
+      <c r="AP35" t="n">
         <v>29</v>
       </c>
-      <c r="AN35" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ35" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR35" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS35" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV35" t="n">
         <v>51</v>
       </c>
       <c r="AW35" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AX35" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AY35" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AZ35" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="BA35" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="BB35" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BC35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD35" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6PyWLViI</t>
+          <t>vcrUAcDO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6880,179 +6890,175 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Muang Thong Utd</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Bangkok Utd</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>2.72</v>
       </c>
       <c r="H36" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="I36" t="n">
-        <v>1.42</v>
+        <v>2.42</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L36" t="n">
-        <v>1.91</v>
+        <v>2.95</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U36" t="n">
         <v>1.53</v>
       </c>
-      <c r="R36" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="W36" t="n">
+        <v>11</v>
+      </c>
+      <c r="X36" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA36" t="n">
         <v>21</v>
       </c>
-      <c r="X36" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>41</v>
-      </c>
       <c r="AB36" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AC36" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AD36" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AE36" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="AF36" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG36" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AH36" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AI36" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ36" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK36" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AL36" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AM36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN36" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="AO36" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AQ36" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AR36" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AS36" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="AU36" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="AV36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>276</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="n">
-        <v>3.6</v>
+        <v>4.55</v>
       </c>
       <c r="AY36" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="AZ36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA36" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="BB36" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="BC36" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>301</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BD36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6cgP7YpA</t>
+          <t>tbzXU0bt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7067,174 +7073,170 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Rayong FC</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Nakhon Pathom</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
         <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="K37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="S37" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T37" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="U37" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="V37" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="W37" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="X37" t="n">
-        <v>9</v>
+        <v>11.75</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
       </c>
       <c r="Z37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AY37" t="n">
         <v>17</v>
       </c>
-      <c r="AA37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ37" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BA37" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BB37" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BC37" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>126</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="BD37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>fB7B3Iml</t>
+          <t>8632KwYA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7244,177 +7246,179 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Dyn. Kyiv</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.17</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>16</v>
+        <v>2.63</v>
       </c>
       <c r="J38" t="n">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="K38" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L38" t="n">
-        <v>11.75</v>
+        <v>3.25</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="R38" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S38" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="T38" t="n">
-        <v>3.38</v>
+        <v>2.75</v>
       </c>
       <c r="U38" t="n">
-        <v>2.55</v>
+        <v>1.73</v>
       </c>
       <c r="V38" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="W38" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="X38" t="n">
-        <v>5.1</v>
+        <v>13</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z38" t="n">
-        <v>5.9</v>
+        <v>26</v>
       </c>
       <c r="AA38" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AB38" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE38" t="n">
         <v>13</v>
       </c>
-      <c r="AE38" t="n">
-        <v>40</v>
-      </c>
       <c r="AF38" t="n">
-        <v>300</v>
-      </c>
-      <c r="AG38" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>201</v>
+      </c>
       <c r="AH38" t="n">
-        <v>35</v>
+        <v>9.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="AJ38" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AK38" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AL38" t="n">
-        <v>350</v>
+        <v>21</v>
       </c>
       <c r="AM38" t="n">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="AN38" t="n">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="AO38" t="n">
-        <v>4.7</v>
+        <v>15</v>
       </c>
       <c r="AP38" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AQ38" t="n">
-        <v>11.25</v>
+        <v>41</v>
       </c>
       <c r="AR38" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AS38" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AT38" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU38" t="n">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV38" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AW38" t="n">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="AX38" t="n">
-        <v>14</v>
+        <v>4.75</v>
       </c>
       <c r="AY38" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="AZ38" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="BA38" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB38" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC38" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD38" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>reSv4Vyq</t>
+          <t>6PyWLViI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7424,172 +7428,716 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Dibba Al Hisn</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bani Yas</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I39" t="n">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="J39" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="K39" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="L39" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="P39" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R39" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="S39" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T39" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="U39" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="V39" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W39" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="X39" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Z39" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AA39" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AB39" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AE39" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AF39" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AH39" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI39" t="n">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="AJ39" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AL39" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AM39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN39" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="AO39" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AP39" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AQ39" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="AR39" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="AS39" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AU39" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="AV39" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW39" t="n">
-        <v>500</v>
+        <v>276</v>
       </c>
       <c r="AX39" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="AY39" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="AZ39" t="n">
         <v>15</v>
       </c>
       <c r="BA39" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>6cgP7YpA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N40" t="n">
+        <v>9</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W40" t="n">
+        <v>7</v>
+      </c>
+      <c r="X40" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>fB7B3Iml</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Dyn. Kyiv</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Ch. Odesa</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L41" t="n">
+        <v>12</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N41" t="n">
+        <v>15</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W41" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>300</v>
+      </c>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>350</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>150</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>120</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>reSv4Vyq</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Dibba Al Hisn</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Bani Yas</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>500</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA42" t="n">
         <v>26</v>
       </c>
-      <c r="BB39" t="n">
+      <c r="BB42" t="n">
         <v>45</v>
       </c>
-      <c r="BC39" t="n">
+      <c r="BC42" t="n">
         <v>150</v>
       </c>
-      <c r="BD39" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD50"/>
+  <dimension ref="A1:BD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,46 +747,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="U2" t="n">
         <v>1.5</v>
@@ -795,49 +795,49 @@
         <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="n">
         <v>41</v>
       </c>
-      <c r="AI2" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -852,19 +852,19 @@
         <v>6.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
         <v>15</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="n">
         <v>67</v>
       </c>
       <c r="AT2" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -876,7 +876,7 @@
         <v>251</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -891,7 +891,7 @@
         <v>81</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>160</v>
@@ -953,16 +953,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -1076,13 +1076,13 @@
         <v>151</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6w5RRTN0</t>
+          <t>GryrQGK8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>2.63</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>12</v>
       </c>
-      <c r="AB4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
         <v>12</v>
       </c>
-      <c r="AF4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY4" t="n">
         <v>17</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AZ4" t="n">
         <v>26</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>23</v>
-      </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
         <v>67</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>z7KrCz8T</t>
+          <t>6w5RRTN0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,170 +1274,170 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>GERMANY - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J5" t="n">
         <v>2.25</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N5" t="n">
+        <v>19</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.75</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY5" t="n">
         <v>21</v>
       </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
+      <c r="AZ5" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>29</v>
       </c>
       <c r="BA5" t="n">
         <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC5" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>zLHdIaME</t>
+          <t>z7KrCz8T</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,170 +1456,170 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.05</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
         <v>13</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
         <v>8</v>
       </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ6" t="n">
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY6" t="n">
         <v>19</v>
       </c>
-      <c r="AK6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
@@ -2051,25 +2051,25 @@
         <v>3.2</v>
       </c>
       <c r="Q9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.1</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.05</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
         <v>7</v>
@@ -2093,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
@@ -2102,28 +2102,28 @@
         <v>501</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
@@ -2138,7 +2138,7 @@
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
         <v>9.5</v>
@@ -2153,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
@@ -2165,10 +2165,10 @@
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J10" t="n">
         <v>3.75</v>
@@ -2254,7 +2254,7 @@
         <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>12</v>
@@ -2287,7 +2287,7 @@
         <v>6.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
@@ -2305,13 +2305,13 @@
         <v>4.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2TSk7S6E</t>
+          <t>SQEAL2Za</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
+          <t>D. Zagreb</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lok. Sofia</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
         <v>13</v>
       </c>
-      <c r="J15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>10</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>13</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>7</v>
-      </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB15" t="n">
         <v>34</v>
       </c>
       <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH15" t="n">
         <v>11</v>
       </c>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AI15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>29</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
         <v>81</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AX15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA15" t="n">
         <v>101</v>
       </c>
-      <c r="AH15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="BB15" t="n">
         <v>151</v>
       </c>
-      <c r="AL15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM15" t="n">
+      <c r="BC15" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD15" t="n">
         <v>81</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SQEAL2Za</t>
+          <t>lfxQ3L86</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,175 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>D. Zagreb</t>
+          <t>Nea Salamis</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Omonia 29th May</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>15</v>
       </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI16" t="n">
         <v>21</v>
       </c>
-      <c r="AF16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP16" t="n">
         <v>17</v>
       </c>
-      <c r="AK16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.87</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AV16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>81</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="BA16" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BC16" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>81</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lfxQ3L86</t>
+          <t>KEp9739s</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3454,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,165 +3464,165 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nea Salamis</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Omonia 29th May</t>
+          <t>Apollon</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J17" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="K17" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L17" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P17" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S17" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="T17" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="U17" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="W17" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X17" t="n">
         <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA17" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG17" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AH17" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>40</v>
       </c>
-      <c r="AM17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>35</v>
-      </c>
       <c r="AR17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS17" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.87</v>
+        <v>2.72</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AY17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB17" t="n">
         <v>150</v>
       </c>
       <c r="BC17" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>KEp9739s</t>
+          <t>EmtkXjjU</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3636,53 +3632,53 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Hradec Kralove</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Apollon</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.45</v>
+        <v>1.7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
         <v>2.05</v>
@@ -3691,120 +3687,124 @@
         <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>6.9</v>
+        <v>12</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.25</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.5</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL18" t="n">
         <v>15</v>
       </c>
-      <c r="AF18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>35</v>
-      </c>
       <c r="AM18" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.05</v>
+        <v>6.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AQ18" t="n">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AR18" t="n">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="AS18" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW18" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>81</v>
+      </c>
       <c r="AX18" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="AY18" t="n">
-        <v>18.5</v>
+        <v>9.5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BA18" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="BB18" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="BC18" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD18" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WGtzDoqk</t>
+          <t>QctIKDFi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3814,175 +3814,175 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dinamo Batumi</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Iberia 1999</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.35</v>
+        <v>2.32</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="I19" t="n">
-        <v>1.65</v>
+        <v>3.15</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="K19" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="L19" t="n">
-        <v>2.18</v>
+        <v>3.7</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>13.2</v>
+        <v>6.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>4.37</v>
+        <v>2.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>2.07</v>
       </c>
       <c r="R19" t="n">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="W19" t="n">
-        <v>13</v>
+        <v>7.3</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.75</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AA19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL19" t="n">
         <v>29</v>
       </c>
-      <c r="AB19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>10</v>
-      </c>
       <c r="AM19" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO19" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AQ19" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AR19" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AS19" t="n">
         <v>250</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="AU19" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AV19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="AY19" t="n">
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="BA19" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="BB19" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="BC19" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pn92nYCG</t>
+          <t>WGtzDoqk</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3992,174 +3992,170 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Dinamo Batumi</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Wehen</t>
+          <t>Iberia 1999</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>4.35</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L20" t="n">
-        <v>2.88</v>
+        <v>2.18</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>4.37</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
       <c r="S20" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U20" t="n">
         <v>1.62</v>
       </c>
       <c r="V20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="Z20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA20" t="n">
         <v>29</v>
       </c>
-      <c r="AA20" t="n">
-        <v>21</v>
-      </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC20" t="n">
         <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AG20" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AH20" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AM20" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="AO20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>15</v>
       </c>
-      <c r="AP20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>21</v>
-      </c>
       <c r="BA20" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="BB20" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="BC20" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>81</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4564,25 +4560,25 @@
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R23" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S23" t="n">
         <v>1.44</v>
@@ -4615,7 +4611,7 @@
         <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
@@ -4627,10 +4623,10 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
         <v>26</v>
@@ -4645,7 +4641,7 @@
         <v>41</v>
       </c>
       <c r="AM23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
         <v>3.6</v>
@@ -4657,7 +4653,7 @@
         <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
         <v>51</v>
@@ -4684,13 +4680,13 @@
         <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA23" t="n">
         <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC23" t="n">
         <v>301</v>
@@ -5307,10 +5303,10 @@
         <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S27" t="n">
         <v>1.3</v>
@@ -5430,7 +5426,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ILpU8rPF</t>
+          <t>tzbYLV7F</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5440,146 +5436,146 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N28" t="n">
+        <v>19</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" t="n">
+        <v>9</v>
+      </c>
+      <c r="X28" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA28" t="n">
         <v>11</v>
       </c>
-      <c r="H28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="J28" t="n">
-        <v>10</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N28" t="n">
-        <v>23</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T28" t="n">
-        <v>4</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W28" t="n">
-        <v>29</v>
-      </c>
-      <c r="X28" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>151</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>81</v>
-      </c>
       <c r="AB28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK28" t="n">
         <v>67</v>
       </c>
-      <c r="AC28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD28" t="n">
+      <c r="AL28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP28" t="n">
         <v>15</v>
       </c>
-      <c r="AE28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP28" t="n">
+      <c r="AQ28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR28" t="n">
         <v>41</v>
       </c>
-      <c r="AQ28" t="n">
-        <v>251</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>251</v>
-      </c>
       <c r="AS28" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AT28" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AU28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
@@ -5588,31 +5584,31 @@
         <v>501</v>
       </c>
       <c r="AX28" t="n">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="AZ28" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="BA28" t="n">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="BB28" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="BC28" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BD28" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0pzZ72vM</t>
+          <t>E1NQEe2e</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5622,179 +5618,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Leczna</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.53</v>
+        <v>2.35</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8</v>
+      </c>
+      <c r="X29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA29" t="n">
         <v>19</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W29" t="n">
-        <v>10</v>
-      </c>
-      <c r="X29" t="n">
+      <c r="AB29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC29" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA29" t="n">
+      <c r="AD29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>11</v>
       </c>
-      <c r="AB29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>17</v>
-      </c>
       <c r="AK29" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AL29" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
         <v>34</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO29" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AS29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
         <v>81</v>
       </c>
-      <c r="AT29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>351</v>
-      </c>
       <c r="AX29" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AY29" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
         <v>26</v>
       </c>
       <c r="BA29" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB29" t="n">
         <v>81</v>
       </c>
       <c r="BC29" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD29" t="n">
-        <v>176</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Emvw7MgS</t>
+          <t>EDHGn6Zg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5804,179 +5800,179 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tromso</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.45</v>
+        <v>8.5</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="I30" t="n">
-        <v>6.5</v>
+        <v>1.29</v>
       </c>
       <c r="J30" t="n">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="K30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>17</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R30" t="n">
         <v>2.5</v>
       </c>
-      <c r="L30" t="n">
+      <c r="S30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W30" t="n">
+        <v>23</v>
+      </c>
+      <c r="X30" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY30" t="n">
         <v>6</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="AZ30" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA30" t="n">
         <v>15</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2</v>
-      </c>
-      <c r="W30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X30" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI30" t="n">
+      <c r="BB30" t="n">
         <v>34</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS30" t="n">
+      <c r="BC30" t="n">
         <v>101</v>
       </c>
-      <c r="AT30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>201</v>
-      </c>
       <c r="BD30" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>WSQ42t2q</t>
+          <t>OSMuEaMi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5986,179 +5982,179 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>2.38</v>
       </c>
       <c r="J31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V31" t="n">
         <v>2.05</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N31" t="n">
-        <v>19</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.25</v>
       </c>
       <c r="W31" t="n">
         <v>10</v>
       </c>
       <c r="X31" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AA31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
         <v>11</v>
       </c>
-      <c r="AB31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>19</v>
-      </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AH31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL31" t="n">
         <v>19</v>
       </c>
-      <c r="AI31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>34</v>
-      </c>
       <c r="AM31" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AP31" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AR31" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS31" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="AU31" t="n">
         <v>7.5</v>
       </c>
       <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA31" t="n">
         <v>41</v>
       </c>
-      <c r="AW31" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>81</v>
-      </c>
       <c r="BB31" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC31" t="n">
         <v>151</v>
       </c>
       <c r="BD31" t="n">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>tzbYLV7F</t>
+          <t>AyRaTQbK</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6168,179 +6164,179 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I32" t="n">
-        <v>6.5</v>
+        <v>11.75</v>
       </c>
       <c r="J32" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="K32" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>9.75</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W32" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X32" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO32" t="n">
         <v>5</v>
       </c>
-      <c r="Q32" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2</v>
-      </c>
-      <c r="W32" t="n">
-        <v>9</v>
-      </c>
-      <c r="X32" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>7</v>
-      </c>
       <c r="AP32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ32" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AR32" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AS32" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AU32" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AV32" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AW32" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX32" t="n">
-        <v>8</v>
+        <v>11.75</v>
       </c>
       <c r="AY32" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AZ32" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="BA32" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="BB32" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="BC32" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="BD32" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>E1NQEe2e</t>
+          <t>vHveYy3B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6350,179 +6346,179 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Leczna</t>
+          <t>Zilina</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="H33" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="K33" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L33" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P33" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R33" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S33" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="T33" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="U33" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V33" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="W33" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AY33" t="n">
         <v>21</v>
       </c>
-      <c r="AA33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ33" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA33" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="BB33" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="BC33" t="n">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="BD33" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EDHGn6Zg</t>
+          <t>UiC92e9L</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6532,179 +6528,179 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>1.29</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>2.82</v>
       </c>
       <c r="K34" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.67</v>
+        <v>3.6</v>
       </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>6.7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>2.62</v>
+        <v>1.75</v>
       </c>
       <c r="S34" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="T34" t="n">
-        <v>3.75</v>
+        <v>2.77</v>
       </c>
       <c r="U34" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V34" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="W34" t="n">
-        <v>26</v>
+        <v>7.6</v>
       </c>
       <c r="X34" t="n">
-        <v>41</v>
+        <v>11.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="AA34" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="AC34" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AY34" t="n">
         <v>17</v>
       </c>
-      <c r="AD34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>6</v>
-      </c>
       <c r="AZ34" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA34" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="BB34" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="BC34" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="BD34" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C2YeAHLG</t>
+          <t>hh03JPzQ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6714,179 +6710,179 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.22</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L35" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="P35" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.48</v>
+        <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="T35" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="U35" t="n">
         <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W35" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X35" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y35" t="n">
         <v>10</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AB35" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE35" t="n">
         <v>17</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>23</v>
       </c>
       <c r="AF35" t="n">
         <v>67</v>
       </c>
       <c r="AG35" t="n">
-        <v>301</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AI35" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AJ35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP35" t="n">
         <v>29</v>
       </c>
-      <c r="AK35" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL35" t="n">
+      <c r="AQ35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV35" t="n">
         <v>67</v>
       </c>
-      <c r="AM35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR35" t="n">
+      <c r="AW35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ35" t="n">
         <v>34</v>
       </c>
-      <c r="AS35" t="n">
+      <c r="BA35" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB35" t="n">
         <v>101</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>201</v>
       </c>
       <c r="BC35" t="n">
         <v>301</v>
       </c>
       <c r="BD35" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>fPWODjS8</t>
+          <t>xQyzE3bm</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6896,41 +6892,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L36" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
@@ -6942,88 +6938,88 @@
         <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U36" t="n">
         <v>1.83</v>
       </c>
-      <c r="S36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W36" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB36" t="n">
         <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO36" t="n">
         <v>13</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>15</v>
       </c>
       <c r="AP36" t="n">
         <v>23</v>
       </c>
       <c r="AQ36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR36" t="n">
         <v>67</v>
@@ -7032,7 +7028,7 @@
         <v>151</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU36" t="n">
         <v>8</v>
@@ -7041,34 +7037,34 @@
         <v>51</v>
       </c>
       <c r="AW36" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX36" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AY36" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ36" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA36" t="n">
         <v>51</v>
       </c>
       <c r="BB36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD36" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OSMuEaMi</t>
+          <t>2NZG85l4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7078,41 +7074,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J37" t="n">
         <v>2.38</v>
       </c>
-      <c r="J37" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L37" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -7121,136 +7117,136 @@
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R37" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V37" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W37" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="X37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z37" t="n">
         <v>15</v>
       </c>
-      <c r="Y37" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>29</v>
-      </c>
       <c r="AA37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB37" t="n">
         <v>23</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>29</v>
       </c>
       <c r="AC37" t="n">
         <v>11</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG37" t="n">
         <v>201</v>
       </c>
       <c r="AH37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO37" t="n">
         <v>9</v>
       </c>
-      <c r="AI37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK37" t="n">
+      <c r="AP37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY37" t="n">
         <v>23</v>
       </c>
-      <c r="AL37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ37" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BA37" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB37" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD37" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>trQvuhxS</t>
+          <t>Ozq6nFX1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7260,170 +7256,170 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="J38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L38" t="n">
         <v>2.63</v>
       </c>
-      <c r="K38" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N38" t="n">
+        <v>17</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>15</v>
+      </c>
+      <c r="X38" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX38" t="n">
         <v>4.5</v>
       </c>
-      <c r="M38" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W38" t="n">
-        <v>6</v>
-      </c>
-      <c r="X38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z38" t="n">
+      <c r="AY38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ38" t="n">
         <v>17</v>
       </c>
-      <c r="AA38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB38" t="n">
+      <c r="BA38" t="n">
         <v>34</v>
       </c>
-      <c r="AC38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK38" t="n">
+      <c r="BB38" t="n">
         <v>41</v>
       </c>
-      <c r="AL38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>126</v>
-      </c>
       <c r="BC38" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="BD38" t="n">
         <v>81</v>
@@ -7432,7 +7428,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MFp57qx1</t>
+          <t>WWdwuuDG</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7442,2156 +7438,170 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W39" t="n">
+        <v>10</v>
+      </c>
+      <c r="X39" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z39" t="n">
         <v>32</v>
       </c>
-      <c r="H39" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J39" t="n">
+      <c r="AA39" t="n">
         <v>21</v>
       </c>
-      <c r="K39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="T39" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W39" t="n">
-        <v>120</v>
-      </c>
-      <c r="X39" t="n">
-        <v>700</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>150</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>600</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>600</v>
-      </c>
       <c r="AB39" t="n">
-        <v>600</v>
+        <v>25</v>
       </c>
       <c r="AC39" t="n">
-        <v>10.25</v>
+        <v>7.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>23</v>
+        <v>6.2</v>
       </c>
       <c r="AE39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ39" t="n">
         <v>65</v>
       </c>
-      <c r="AF39" t="n">
-        <v>350</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>300</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>150</v>
-      </c>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
+      <c r="AR39" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>200</v>
+      </c>
       <c r="AT39" t="n">
-        <v>3.9</v>
+        <v>2.82</v>
       </c>
       <c r="AU39" t="n">
-        <v>13.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV39" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="n">
-        <v>2.95</v>
+        <v>4.65</v>
       </c>
       <c r="AY39" t="n">
-        <v>3.95</v>
+        <v>13.5</v>
       </c>
       <c r="AZ39" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BA39" t="n">
-        <v>7.6</v>
+        <v>55</v>
       </c>
       <c r="BB39" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="BC39" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BD39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AyRaTQbK</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>SERBIA - SUPER LIGA</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Vojvodina</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Tekstilac Odzaci</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="L40" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N40" t="n">
-        <v>9</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W40" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X40" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>80</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>70</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>450</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>vHveYy3B</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Zilina</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Trnava</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="W41" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X41" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>28</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>400</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>UiC92e9L</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>SLOVENIA - PRVA LIGA</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Domzale</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Nafta</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N42" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W42" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="X42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>75</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>hh03JPzQ</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Burgos CF</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N43" t="n">
-        <v>7</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X43" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>xQyzE3bm</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N44" t="n">
-        <v>10</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X44" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2NZG85l4</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Grasshoppers</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Winterthur</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N45" t="n">
-        <v>13</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2</v>
-      </c>
-      <c r="W45" t="n">
-        <v>8</v>
-      </c>
-      <c r="X45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Ozq6nFX1</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Luzern</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N46" t="n">
-        <v>17</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V46" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W46" t="n">
-        <v>15</v>
-      </c>
-      <c r="X46" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>04rsDeQp</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Bodrumspor</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="J47" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N47" t="n">
-        <v>17</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R47" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W47" t="n">
-        <v>21</v>
-      </c>
-      <c r="X47" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>276</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>bRn7IkaS</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Genclerbirligi</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Ankaragucu</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N48" t="n">
-        <v>11</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P48" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T48" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V48" t="n">
-        <v>2</v>
-      </c>
-      <c r="W48" t="n">
-        <v>10</v>
-      </c>
-      <c r="X48" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD48" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>0fqm3lx8</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Shakhtar Donetsk</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Inhulets</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H49" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>19</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N49" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T49" t="n">
-        <v>4</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W49" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X49" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>700</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>400</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW49" t="inlineStr"/>
-      <c r="AX49" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>120</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>700</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>700</v>
-      </c>
-      <c r="BC49" t="inlineStr"/>
-      <c r="BD49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>WWdwuuDG</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Rhode Island</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N50" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P50" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V50" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W50" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X50" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW50" t="inlineStr"/>
-      <c r="AX50" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>65</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>80</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>200</v>
-      </c>
-      <c r="BD50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD29"/>
+  <dimension ref="A1:BD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
         <v>2.88</v>
@@ -783,10 +783,10 @@
         <v>3.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.5</v>
@@ -855,7 +855,7 @@
         <v>13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -864,7 +864,7 @@
         <v>67</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>4.33</v>
@@ -1213,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>15</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1419,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
         <v>5.25</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
         <v>1.73</v>
@@ -1490,7 +1490,7 @@
         <v>2.63</v>
       </c>
       <c r="L6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1505,10 +1505,10 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1523,16 +1523,16 @@
         <v>1.8</v>
       </c>
       <c r="W6" t="n">
+        <v>8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
         <v>8.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA6" t="n">
         <v>11</v>
@@ -1544,10 +1544,10 @@
         <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
@@ -1556,13 +1556,13 @@
         <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
         <v>51</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>126</v>
@@ -1571,7 +1571,7 @@
         <v>67</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN6" t="n">
         <v>3.25</v>
@@ -1613,10 +1613,10 @@
         <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
         <v>301</v>
@@ -1660,13 +1660,13 @@
         <v>1.73</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K7" t="n">
         <v>2.38</v>
@@ -1693,10 +1693,10 @@
         <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1705,7 +1705,7 @@
         <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
         <v>9</v>
@@ -1729,7 +1729,7 @@
         <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1744,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
         <v>34</v>
@@ -1759,13 +1759,13 @@
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
@@ -1774,7 +1774,7 @@
         <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1783,7 +1783,7 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX7" t="n">
         <v>6.5</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1971,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
         <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
@@ -2045,10 +2045,10 @@
         <v>6.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
         <v>2.63</v>
@@ -2075,13 +2075,13 @@
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2093,7 +2093,7 @@
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
@@ -2102,7 +2102,7 @@
         <v>501</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2111,7 +2111,7 @@
         <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2120,7 +2120,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
         <v>17</v>
@@ -2144,7 +2144,7 @@
         <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
@@ -2156,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
         <v>51</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
@@ -2212,7 +2212,7 @@
         <v>2.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
@@ -2224,7 +2224,7 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -2257,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
         <v>23</v>
@@ -2305,13 +2305,13 @@
         <v>4.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>67</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SQEAL2Za</t>
+          <t>ngpkpS2e</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,170 +2366,170 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>D. Zagreb</t>
+          <t>Lokeren-Temse</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Anderlecht U23</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
         <v>3.6</v>
       </c>
-      <c r="I11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.1</v>
       </c>
-      <c r="L11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
         <v>13</v>
       </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>21</v>
-      </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>1250</v>
+        <v>151</v>
       </c>
       <c r="AH11" t="n">
         <v>11</v>
       </c>
       <c r="AI11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
         <v>23</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AM11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>41</v>
       </c>
-      <c r="AM11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>29</v>
-      </c>
       <c r="AR11" t="n">
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
         <v>81</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC11" t="n">
         <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>351</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KEp9739s</t>
+          <t>nu5GVSm2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,175 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>RWDM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Apollon</t>
+          <t>Beveren</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>4.05</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>7.1</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.36</v>
       </c>
-      <c r="P12" t="n">
+      <c r="T12" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.8</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.1</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>700</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AL12" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW12" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>81</v>
+      </c>
       <c r="AX12" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="BC12" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD12" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EmtkXjjU</t>
+          <t>KEp9739s</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2726,53 +2730,53 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Apollon</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>2.52</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>2.4</v>
+        <v>4.15</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
         <v>2.05</v>
@@ -2781,124 +2785,120 @@
         <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="W13" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>51</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="n">
-        <v>351</v>
+        <v>800</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AR13" t="n">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="AS13" t="n">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>81</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="AY13" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="BA13" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="BB13" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="BC13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>81</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QctIKDFi</t>
+          <t>EmtkXjjU</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2913,170 +2913,174 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Hradec Kralove</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.32</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.15</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="V14" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>7.3</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
         <v>9</v>
       </c>
-      <c r="Z14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD14" t="n">
-        <v>5.9</v>
-      </c>
       <c r="AE14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>600</v>
+        <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.75</v>
+        <v>6.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM14" t="n">
         <v>29</v>
       </c>
-      <c r="AM14" t="n">
-        <v>37</v>
-      </c>
       <c r="AN14" t="n">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AP14" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AQ14" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AR14" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="AS14" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW14" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>81</v>
+      </c>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AY14" t="n">
-        <v>17.5</v>
+        <v>9.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="BB14" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="BC14" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD14" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lpmqB4mQ</t>
+          <t>QctIKDFi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3086,175 +3090,175 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Volos</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.42</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN15" t="n">
         <v>4.2</v>
       </c>
-      <c r="I15" t="n">
-        <v>8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6</v>
-      </c>
-      <c r="X15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AR15" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>41</v>
+        <v>17.5</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="BC15" t="n">
-        <v>401</v>
+        <v>300</v>
       </c>
       <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>rHVg6WKq</t>
+          <t>MToc6WxB</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3264,41 +3268,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fehervar FC</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ujpest</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -3316,7 +3320,7 @@
         <v>2.05</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3331,25 +3335,25 @@
         <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y16" t="n">
         <v>11</v>
       </c>
-      <c r="Y16" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3361,40 +3365,40 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM16" t="n">
         <v>29</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
         <v>26</v>
       </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
         <v>201</v>
@@ -3408,31 +3412,35 @@
       <c r="AV16" t="n">
         <v>51</v>
       </c>
-      <c r="AW16" t="inlineStr"/>
+      <c r="AW16" t="n">
+        <v>81</v>
+      </c>
       <c r="AX16" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AY16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD16" t="n">
         <v>81</v>
       </c>
-      <c r="BC16" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tzbYLV7F</t>
+          <t>lpmqB4mQ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3442,77 +3450,77 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>GKS Katowice</t>
+          <t>Volos</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L17" t="n">
         <v>6.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6</v>
-      </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>2.5</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T17" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.75</v>
       </c>
-      <c r="V17" t="n">
-        <v>2</v>
-      </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
@@ -3521,74 +3529,72 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>21</v>
       </c>
-      <c r="AC17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH17" t="n">
+      <c r="AK17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP17" t="n">
         <v>21</v>
       </c>
-      <c r="AI17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AQ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV17" t="n">
         <v>67</v>
       </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>501</v>
-      </c>
+      <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
         <v>8</v>
       </c>
@@ -3596,25 +3602,23 @@
         <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>81</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E1NQEe2e</t>
+          <t>rHVg6WKq</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3624,38 +3628,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Leczna</t>
+          <t>Fehervar FC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Ujpest</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
         <v>2.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L18" t="n">
         <v>3.6</v>
@@ -3667,16 +3671,16 @@
         <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="n">
         <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3685,13 +3689,13 @@
         <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -3703,13 +3707,13 @@
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="n">
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -3721,10 +3725,10 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI18" t="n">
         <v>15</v>
@@ -3736,7 +3740,7 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>34</v>
@@ -3757,7 +3761,7 @@
         <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
         <v>2.63</v>
@@ -3768,9 +3772,7 @@
       <c r="AV18" t="n">
         <v>51</v>
       </c>
-      <c r="AW18" t="n">
-        <v>81</v>
-      </c>
+      <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
         <v>5</v>
       </c>
@@ -3789,14 +3791,12 @@
       <c r="BC18" t="n">
         <v>201</v>
       </c>
-      <c r="BD18" t="n">
-        <v>81</v>
-      </c>
+      <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S4kwOau9</t>
+          <t>8dfF2Lbm</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3806,179 +3806,173 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LKS Lodz</t>
+          <t>Hassania Agadir</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>1.33</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K19" t="n">
         <v>2.2</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L19" t="n">
-        <v>2.88</v>
+        <v>10</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y19" t="n">
         <v>10</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W19" t="n">
-        <v>10</v>
-      </c>
-      <c r="X19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>12</v>
-      </c>
       <c r="Z19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE19" t="n">
         <v>34</v>
       </c>
-      <c r="AA19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AF19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO19" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>19</v>
       </c>
       <c r="AP19" t="n">
         <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>81</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>4.33</v>
+        <v>10</v>
       </c>
       <c r="AY19" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AZ19" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="BB19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>81</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EDHGn6Zg</t>
+          <t>nywDEm0k</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3988,170 +3982,170 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Cracovia</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="n">
         <v>8.5</v>
       </c>
-      <c r="H20" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="X20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO20" t="n">
         <v>7.5</v>
       </c>
-      <c r="K20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>11</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W20" t="n">
-        <v>26</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR20" t="n">
         <v>41</v>
       </c>
-      <c r="Y20" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z20" t="n">
+      <c r="AS20" t="n">
         <v>101</v>
       </c>
-      <c r="AA20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>500</v>
-      </c>
       <c r="AT20" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AX20" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="AY20" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="BA20" t="n">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BC20" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BD20" t="n">
         <v>81</v>
@@ -4160,7 +4154,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OSMuEaMi</t>
+          <t>S4kwOau9</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4170,41 +4164,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Pruszkow</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>LKS Lodz</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -4213,16 +4207,16 @@
         <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R21" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
         <v>1.4</v>
@@ -4231,118 +4225,118 @@
         <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
+        <v>10</v>
+      </c>
+      <c r="X21" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>11</v>
       </c>
       <c r="AD21" t="n">
         <v>6.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>10</v>
-      </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT21" t="n">
         <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AY21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ21" t="n">
         <v>23</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC21" t="n">
         <v>151</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AyRaTQbK</t>
+          <t>EDHGn6Zg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4352,179 +4346,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>8.5</v>
       </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I22" t="n">
-        <v>11.75</v>
+        <v>1.27</v>
       </c>
       <c r="J22" t="n">
-        <v>1.6</v>
+        <v>7.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L22" t="n">
-        <v>9.75</v>
+        <v>1.67</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
+        <v>17</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W22" t="n">
+        <v>26</v>
+      </c>
+      <c r="X22" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH22" t="n">
         <v>9</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W22" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC22" t="n">
+      <c r="AI22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>9</v>
       </c>
-      <c r="AD22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG22" t="n">
+      <c r="AK22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC22" t="n">
         <v>101</v>
       </c>
-      <c r="AH22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>70</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>450</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>51</v>
-      </c>
       <c r="BD22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vHveYy3B</t>
+          <t>OSMuEaMi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4534,62 +4528,62 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Zilina</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="J23" t="n">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>4.15</v>
+        <v>3.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R23" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T23" t="n">
         <v>2.75</v>
@@ -4598,115 +4592,115 @@
         <v>1.7</v>
       </c>
       <c r="V23" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="X23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC23" t="n">
         <v>11</v>
       </c>
-      <c r="Y23" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL23" t="n">
         <v>21</v>
       </c>
-      <c r="AA23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>37</v>
-      </c>
       <c r="AM23" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.95</v>
+        <v>4.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AU23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="AX23" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ23" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="BA23" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="BB23" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="BC23" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="BD23" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UiC92e9L</t>
+          <t>AyRaTQbK</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4716,170 +4710,170 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>11.75</v>
       </c>
       <c r="J24" t="n">
-        <v>2.82</v>
+        <v>1.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="L24" t="n">
-        <v>3.6</v>
+        <v>9.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="S24" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="T24" t="n">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="V24" t="n">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="W24" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="X24" t="n">
-        <v>11.25</v>
+        <v>5.6</v>
       </c>
       <c r="Y24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC24" t="n">
         <v>9</v>
       </c>
-      <c r="Z24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AF24" t="n">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="AG24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK24" t="n">
         <v>500</v>
       </c>
-      <c r="AH24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>40</v>
-      </c>
       <c r="AL24" t="n">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="AM24" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.25</v>
+        <v>2.95</v>
       </c>
       <c r="AO24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX24" t="n">
         <v>11.75</v>
       </c>
-      <c r="AP24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>5.1</v>
-      </c>
       <c r="AY24" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="BA24" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="BB24" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="BC24" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BD24" t="n">
         <v>51</v>
@@ -4888,7 +4882,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hh03JPzQ</t>
+          <t>vHveYy3B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4898,179 +4892,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Zilina</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
         <v>3.3</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S25" t="n">
         <v>1.44</v>
       </c>
-      <c r="P25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T25" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="V25" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="W25" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="X25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="Z25" t="n">
         <v>21</v>
       </c>
       <c r="AA25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
         <v>21</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AM25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.33</v>
+        <v>3.95</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AQ25" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AR25" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AS25" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.38</v>
+        <v>2.67</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV25" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AW25" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY25" t="n">
         <v>21</v>
       </c>
       <c r="AZ25" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="BA25" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="BB25" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="BC25" t="n">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="BD25" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>xQyzE3bm</t>
+          <t>hh03JPzQ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5090,139 +5084,139 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L26" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
+        <v>7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6</v>
+      </c>
+      <c r="X26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y26" t="n">
         <v>10</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X26" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>9.5</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG26" t="n">
-        <v>251</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
         <v>34</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>29</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
         <v>13</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
       </c>
       <c r="AR26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV26" t="n">
         <v>67</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>51</v>
       </c>
       <c r="AW26" t="n">
         <v>81</v>
@@ -5231,19 +5225,19 @@
         <v>5</v>
       </c>
       <c r="AY26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC26" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD26" t="n">
         <v>81</v>
@@ -5252,7 +5246,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2NZG85l4</t>
+          <t>xQyzE3bm</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5262,143 +5256,143 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.8</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="V27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X27" t="n">
         <v>11</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2</v>
-      </c>
-      <c r="W27" t="n">
-        <v>8</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC27" t="n">
         <v>9</v>
       </c>
-      <c r="Y27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>11</v>
-      </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>15</v>
       </c>
       <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>41</v>
       </c>
-      <c r="AG27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>29</v>
-      </c>
       <c r="AR27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU27" t="n">
         <v>8</v>
@@ -5410,16 +5404,16 @@
         <v>81</v>
       </c>
       <c r="AX27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>29</v>
       </c>
       <c r="BA27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB27" t="n">
         <v>81</v>
@@ -5434,7 +5428,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ozq6nFX1</t>
+          <t>2NZG85l4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5454,160 +5448,160 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>11</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R28" t="n">
         <v>2</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N28" t="n">
-        <v>19</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.5</v>
-      </c>
       <c r="S28" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T28" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
+        <v>8</v>
+      </c>
+      <c r="X28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z28" t="n">
         <v>15</v>
       </c>
-      <c r="X28" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>34</v>
-      </c>
       <c r="AA28" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AB28" t="n">
         <v>23</v>
       </c>
       <c r="AC28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP28" t="n">
         <v>19</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AQ28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU28" t="n">
         <v>8</v>
       </c>
-      <c r="AE28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP28" t="n">
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY28" t="n">
         <v>21</v>
       </c>
-      <c r="AQ28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>10</v>
-      </c>
       <c r="AZ28" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="BA28" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BB28" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BC28" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BD28" t="n">
         <v>81</v>
@@ -5616,7 +5610,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>WWdwuuDG</t>
+          <t>Ozq6nFX1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5631,165 +5625,347 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="I29" t="n">
-        <v>2.47</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L29" t="n">
-        <v>3.15</v>
+        <v>2.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>7.4</v>
+        <v>19</v>
       </c>
       <c r="O29" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="P29" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="S29" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="T29" t="n">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="U29" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="V29" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X29" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.4</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AH29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>9</v>
       </c>
-      <c r="AI29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AM29" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>21</v>
       </c>
       <c r="AQ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>WWdwuuDG</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Rhode Island</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W30" t="n">
+        <v>10</v>
+      </c>
+      <c r="X30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>65</v>
       </c>
-      <c r="AR29" t="n">
+      <c r="AR30" t="n">
         <v>90</v>
       </c>
-      <c r="AS29" t="n">
+      <c r="AS30" t="n">
         <v>250</v>
       </c>
-      <c r="AT29" t="n">
+      <c r="AT30" t="n">
         <v>2.67</v>
       </c>
-      <c r="AU29" t="n">
+      <c r="AU30" t="n">
         <v>6.5</v>
       </c>
-      <c r="AV29" t="n">
+      <c r="AV30" t="n">
         <v>55</v>
       </c>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="n">
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="n">
         <v>4.55</v>
       </c>
-      <c r="AY29" t="n">
+      <c r="AY30" t="n">
         <v>14</v>
       </c>
-      <c r="AZ29" t="n">
+      <c r="AZ30" t="n">
         <v>20</v>
       </c>
-      <c r="BA29" t="n">
+      <c r="BA30" t="n">
         <v>60</v>
       </c>
-      <c r="BB29" t="n">
+      <c r="BB30" t="n">
         <v>90</v>
       </c>
-      <c r="BC29" t="n">
+      <c r="BC30" t="n">
         <v>250</v>
       </c>
-      <c r="BD29" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD30"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,67 +929,67 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>26</v>
@@ -1007,31 +1007,31 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>11</v>
       </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
@@ -1061,10 +1061,10 @@
         <v>5</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA3" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>z7KrCz8T</t>
+          <t>roL4GwiR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,98 +1274,98 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>1.29</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>1.73</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="n">
         <v>11</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="n">
         <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
@@ -1374,70 +1374,70 @@
         <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>15</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA5" t="n">
         <v>201</v>
       </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>51</v>
-      </c>
       <c r="BB5" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>roL4GwiR</t>
+          <t>021yBHEl</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,136 +1466,136 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>5.25</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>15</v>
       </c>
-      <c r="AD6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1604,22 +1604,22 @@
         <v>501</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC6" t="n">
         <v>151</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>301</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>021yBHEl</t>
+          <t>buKPeYL5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.73</v>
       </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.2</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
         <v>15</v>
       </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>451</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
         <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>451</v>
+        <v>151</v>
       </c>
       <c r="AX7" t="n">
         <v>6.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>buKPeYL5</t>
+          <t>IsCnpo0d</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,85 +1830,85 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.67</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.7</v>
-      </c>
       <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
         <v>6</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1920,79 +1920,79 @@
         <v>501</v>
       </c>
       <c r="AH8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI8" t="n">
         <v>12</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
         <v>26</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" t="n">
         <v>17</v>
       </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9</v>
-      </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
         <v>126</v>
       </c>
       <c r="AX8" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD8" t="n">
         <v>126</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IsCnpo0d</t>
+          <t>UFG2cJQb</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,110 +2002,110 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>St. Liege</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
         <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.63</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
         <v>29</v>
       </c>
-      <c r="AA9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
       <c r="AC9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD9" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>11</v>
@@ -2114,67 +2114,67 @@
         <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="n">
         <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY9" t="n">
         <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA9" t="n">
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UFG2cJQb</t>
+          <t>ngpkpS2e</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>St. Liege</t>
+          <t>Lokeren-Temse</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Anderlecht U23</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.1</v>
       </c>
-      <c r="L10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
         <v>23</v>
       </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY10" t="n">
         <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>51</v>
       </c>
       <c r="BB10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD10" t="n">
         <v>81</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ngpkpS2e</t>
+          <t>nu5GVSm2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,31 +2376,31 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lokeren-Temse</t>
+          <t>RWDM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Anderlecht U23</t>
+          <t>Beveren</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2415,10 +2415,10 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2427,85 +2427,85 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
         <v>9</v>
       </c>
-      <c r="X11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
         <v>151</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>126</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2514,22 +2514,22 @@
         <v>81</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>nu5GVSm2</t>
+          <t>EmtkXjjU</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,95 +2548,95 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RWDM</t>
+          <t>Hradec Kralove</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Beveren</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>1.83</v>
       </c>
       <c r="J12" t="n">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
         <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2645,49 +2645,49 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS12" t="n">
         <v>251</v>
       </c>
-      <c r="AH12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>151</v>
-      </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
@@ -2696,22 +2696,22 @@
         <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AZ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA12" t="n">
         <v>34</v>
       </c>
-      <c r="BA12" t="n">
-        <v>81</v>
-      </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KEp9739s</t>
+          <t>QctIKDFi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,165 +2730,165 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Apollon</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>2.52</v>
+        <v>2.77</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="U13" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP13" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AQ13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR13" t="n">
         <v>80</v>
       </c>
-      <c r="AG13" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>65</v>
-      </c>
       <c r="AS13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV13" t="n">
         <v>60</v>
       </c>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC13" t="n">
         <v>350</v>
@@ -2898,7 +2898,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EmtkXjjU</t>
+          <t>MToc6WxB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2908,41 +2908,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2951,16 +2951,16 @@
         <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q14" t="n">
         <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -2969,106 +2969,106 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="n">
         <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
         <v>26</v>
       </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
         <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
         <v>81</v>
       </c>
       <c r="AX14" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AY14" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC14" t="n">
         <v>151</v>
@@ -3080,7 +3080,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>QctIKDFi</t>
+          <t>WOOXiqth</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3090,175 +3090,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
+        <v>17</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX15" t="n">
         <v>6.5</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="X15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="n">
-        <v>5</v>
-      </c>
       <c r="AY15" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="BC15" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD15" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MToc6WxB</t>
+          <t>lpmqB4mQ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3268,179 +3272,175 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Volos</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T16" t="n">
         <v>3</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
         <v>10</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W16" t="n">
-        <v>9</v>
-      </c>
-      <c r="X16" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>34</v>
-      </c>
       <c r="AA16" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
         <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO16" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK16" t="n">
+      <c r="AP16" t="n">
         <v>21</v>
       </c>
-      <c r="AL16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="n">
         <v>8</v>
       </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AY16" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB16" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>81</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lpmqB4mQ</t>
+          <t>rHVg6WKq</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3455,170 +3455,170 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Fehervar FC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Volos</t>
+          <t>Ujpest</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.48</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W17" t="n">
         <v>7.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="X17" t="n">
         <v>11</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
         <v>34</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>51</v>
-      </c>
       <c r="AN17" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY17" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA17" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC17" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rHVg6WKq</t>
+          <t>8dfF2Lbm</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3628,175 +3628,173 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fehervar FC</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ujpest</t>
+          <t>Hassania Agadir</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>1.33</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>1.91</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y18" t="n">
         <v>10</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="Z18" t="n">
         <v>7.5</v>
       </c>
-      <c r="X18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD18" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AE18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>21</v>
       </c>
-      <c r="AA18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
         <v>301</v>
       </c>
-      <c r="AH18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>201</v>
-      </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BB18" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>201</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8dfF2Lbm</t>
+          <t>nywDEm0k</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3806,173 +3804,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hassania Agadir</t>
+          <t>Cracovia</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I19" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X19" t="n">
         <v>8</v>
       </c>
-      <c r="J19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>10</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W19" t="n">
-        <v>5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>5</v>
-      </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO19" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
         <v>101</v>
       </c>
-      <c r="AH19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ19" t="n">
+      <c r="AT19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY19" t="n">
         <v>29</v>
       </c>
-      <c r="AK19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL19" t="n">
+      <c r="AZ19" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD19" t="n">
         <v>81</v>
       </c>
-      <c r="AM19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nywDEm0k</t>
+          <t>S4kwOau9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3982,143 +3986,143 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>Pruszkow</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>LKS Lodz</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.1</v>
       </c>
-      <c r="K20" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L20" t="n">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X20" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="n">
         <v>201</v>
       </c>
-      <c r="AH20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>101</v>
-      </c>
       <c r="AT20" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU20" t="n">
         <v>8</v>
@@ -4127,25 +4131,25 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AZ20" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA20" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BB20" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD20" t="n">
         <v>81</v>
@@ -4154,7 +4158,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S4kwOau9</t>
+          <t>EaxNGoNj</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4164,179 +4168,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>LKS Lodz</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U21" t="n">
         <v>2.1</v>
       </c>
-      <c r="L21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="V21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y21" t="n">
         <v>10</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W21" t="n">
-        <v>10</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
         <v>17</v>
       </c>
-      <c r="Y21" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="AF21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
         <v>34</v>
       </c>
-      <c r="AA21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>19</v>
-      </c>
       <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP21" t="n">
         <v>29</v>
       </c>
-      <c r="AN21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
         <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AY21" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BA21" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB21" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EDHGn6Zg</t>
+          <t>OSMuEaMi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4346,179 +4350,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>8.5</v>
+        <v>2.88</v>
       </c>
       <c r="H22" t="n">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1.27</v>
+        <v>2.45</v>
       </c>
       <c r="J22" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.67</v>
+        <v>3.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="R22" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="W22" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="X22" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
         <v>9</v>
       </c>
       <c r="AI22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU22" t="n">
         <v>7.5</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM22" t="n">
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>23</v>
       </c>
-      <c r="AN22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ22" t="n">
+      <c r="BA22" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC22" t="n">
         <v>151</v>
       </c>
-      <c r="AR22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>34</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>101</v>
-      </c>
       <c r="BD22" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OSMuEaMi</t>
+          <t>KfGlCwi4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4528,7 +4532,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4538,88 +4542,88 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="I23" t="n">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L23" t="n">
-        <v>3.2</v>
+        <v>1.91</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.29</v>
       </c>
-      <c r="P23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.4</v>
-      </c>
       <c r="T23" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AB23" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
@@ -4631,43 +4635,43 @@
         <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AJ23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>10</v>
       </c>
-      <c r="AK23" t="n">
-        <v>26</v>
-      </c>
       <c r="AL23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM23" t="n">
         <v>21</v>
       </c>
-      <c r="AM23" t="n">
-        <v>29</v>
-      </c>
       <c r="AN23" t="n">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ23" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
@@ -4676,25 +4680,25 @@
         <v>501</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AY23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>15</v>
       </c>
-      <c r="AZ23" t="n">
-        <v>23</v>
-      </c>
       <c r="BA23" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BC23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD23" t="n">
         <v>151</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="24">
@@ -4732,55 +4736,55 @@
         <v>1.2</v>
       </c>
       <c r="H24" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I24" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
         <v>1.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="L24" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R24" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U24" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="V24" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W24" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="X24" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y24" t="n">
         <v>9.75</v>
@@ -4795,10 +4799,10 @@
         <v>37</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AE24" t="n">
         <v>32</v>
@@ -4810,25 +4814,25 @@
         <v>101</v>
       </c>
       <c r="AH24" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AO24" t="n">
         <v>5</v>
@@ -4837,7 +4841,7 @@
         <v>18</v>
       </c>
       <c r="AQ24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AR24" t="n">
         <v>45</v>
@@ -4846,10 +4850,10 @@
         <v>300</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU24" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AV24" t="n">
         <v>120</v>
@@ -4858,13 +4862,13 @@
         <v>51</v>
       </c>
       <c r="AX24" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AZ24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA24" t="n">
         <v>450</v>
@@ -4882,7 +4886,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vHveYy3B</t>
+          <t>hh03JPzQ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4892,179 +4896,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Zilina</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="L25" t="n">
-        <v>4.15</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="P25" t="n">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="R25" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T25" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U25" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="W25" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
         <v>21</v>
       </c>
       <c r="AA25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
         <v>17</v>
       </c>
-      <c r="AB25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AF25" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG25" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ25" t="n">
         <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AS25" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.67</v>
+        <v>2.38</v>
       </c>
       <c r="AU25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY25" t="n">
         <v>21</v>
       </c>
       <c r="AZ25" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BA25" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="BB25" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BC25" t="n">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="BD25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hh03JPzQ</t>
+          <t>xQyzE3bm</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5084,139 +5088,139 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S26" t="n">
         <v>1.44</v>
       </c>
-      <c r="P26" t="n">
+      <c r="T26" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y26" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>10</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>251</v>
       </c>
       <c r="AH26" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM26" t="n">
         <v>34</v>
       </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO26" t="n">
         <v>13</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
         <v>41</v>
       </c>
       <c r="AR26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS26" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="n">
         <v>81</v>
@@ -5225,19 +5229,19 @@
         <v>5</v>
       </c>
       <c r="AY26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC26" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD26" t="n">
         <v>81</v>
@@ -5246,7 +5250,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>xQyzE3bm</t>
+          <t>OxOP6qJG</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5256,143 +5260,143 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L27" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P27" t="n">
         <v>3.75</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N27" t="n">
-        <v>10</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q27" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R27" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
         <v>7.5</v>
       </c>
       <c r="X27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH27" t="n">
         <v>11</v>
       </c>
-      <c r="Y27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AI27" t="n">
         <v>19</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AJ27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="n">
         <v>29</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>26</v>
       </c>
       <c r="AM27" t="n">
         <v>34</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS27" t="n">
         <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU27" t="n">
         <v>8</v>
@@ -5404,16 +5408,16 @@
         <v>81</v>
       </c>
       <c r="AX27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ27" t="n">
         <v>29</v>
       </c>
       <c r="BA27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB27" t="n">
         <v>81</v>
@@ -5424,548 +5428,6 @@
       <c r="BD27" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2NZG85l4</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Grasshoppers</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Winterthur</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>11</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2</v>
-      </c>
-      <c r="W28" t="n">
-        <v>8</v>
-      </c>
-      <c r="X28" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Ozq6nFX1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Luzern</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N29" t="n">
-        <v>19</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W29" t="n">
-        <v>15</v>
-      </c>
-      <c r="X29" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>WWdwuuDG</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Rhode Island</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="W30" t="n">
-        <v>10</v>
-      </c>
-      <c r="X30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>90</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A7iT11hT</t>
+          <t>GryrQGK8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND - PREMIER LEAGUE</t>
+          <t>FRANCE - LIGUE 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z2" t="n">
         <v>23</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="AA2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN2" t="n">
         <v>4.5</v>
       </c>
-      <c r="U2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W2" t="n">
-        <v>15</v>
-      </c>
-      <c r="X2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AO2" t="n">
         <v>13</v>
       </c>
-      <c r="AA2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="AX2" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GryrQGK8</t>
+          <t>0UVRP7QP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,118 +920,118 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.38</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T3" t="n">
         <v>3.5</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="U3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>13</v>
+      </c>
+      <c r="X3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y3" t="n">
         <v>11</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH3" t="n">
         <v>12</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AK3" t="n">
         <v>23</v>
       </c>
-      <c r="AA3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AL3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO3" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1043,37 +1043,37 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AX3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6w5RRTN0</t>
+          <t>Qyq1UHNc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,47 +1092,47 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>1.53</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
         <v>1.14</v>
@@ -1153,85 +1153,85 @@
         <v>3.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
         <v>19</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
         <v>12</v>
       </c>
-      <c r="AF4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AL4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>26</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9</v>
-      </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
         <v>3.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>41</v>
@@ -1240,25 +1240,25 @@
         <v>351</v>
       </c>
       <c r="AX4" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="AY4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA4" t="n">
         <v>21</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>67</v>
-      </c>
       <c r="BB4" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
@@ -1308,7 +1308,7 @@
         <v>2.63</v>
       </c>
       <c r="L5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1344,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1407,7 +1407,7 @@
         <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
         <v>3.5</v>
@@ -1434,7 +1434,7 @@
         <v>201</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
         <v>301</v>
@@ -1505,10 +1505,10 @@
         <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>buKPeYL5</t>
+          <t>fPvAfdU7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.14</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>8.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>2.38</v>
+        <v>1.44</v>
       </c>
       <c r="K7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>12</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>23</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.1</v>
       </c>
-      <c r="L7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.05</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
         <v>7</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
         <v>451</v>
       </c>
       <c r="AH7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU7" t="n">
         <v>11</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="AX7" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IsCnpo0d</t>
+          <t>YFaq9eq1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.75</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="W8" t="n">
+        <v>13</v>
+      </c>
+      <c r="X8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
         <v>7</v>
       </c>
-      <c r="X8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP8" t="n">
         <v>29</v>
       </c>
-      <c r="AA8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="n">
         <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AZ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA8" t="n">
         <v>34</v>
       </c>
-      <c r="BA8" t="n">
-        <v>51</v>
-      </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC8" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UFG2cJQb</t>
+          <t>tGcs6SMF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>St. Liege</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>1.62</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L9" t="n">
         <v>2.1</v>
       </c>
-      <c r="L9" t="n">
-        <v>3.5</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
         <v>15</v>
       </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
         <v>11</v>
       </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO9" t="n">
         <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY9" t="n">
         <v>8</v>
       </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="BB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC9" t="n">
         <v>81</v>
       </c>
-      <c r="BC9" t="n">
-        <v>201</v>
-      </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ngpkpS2e</t>
+          <t>rLBrhOlJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lokeren-Temse</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Anderlecht U23</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J10" t="n">
         <v>2.2</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
         <v>12</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
         <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>17</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>11</v>
-      </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>23</v>
       </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS10" t="n">
         <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA10" t="n">
         <v>81</v>
       </c>
-      <c r="AX10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>51</v>
-      </c>
       <c r="BB10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD10" t="n">
         <v>151</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nu5GVSm2</t>
+          <t>ngpkpS2e</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,31 +2376,31 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RWDM</t>
+          <t>Lokeren-Temse</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Beveren</t>
+          <t>Anderlecht U23</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2427,85 +2427,85 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
         <v>13</v>
       </c>
-      <c r="AA11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
         <v>11</v>
       </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>13</v>
-      </c>
       <c r="AI11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
         <v>23</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2514,22 +2514,22 @@
         <v>81</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EmtkXjjU</t>
+          <t>nu5GVSm2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,95 +2548,95 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hradec Kralove</t>
+          <t>RWDM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Beveren</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1.83</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
         <v>1.91</v>
       </c>
       <c r="W12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
         <v>11</v>
       </c>
-      <c r="X12" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2645,49 +2645,49 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AL12" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>29</v>
       </c>
-      <c r="AN12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>81</v>
-      </c>
       <c r="AR12" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
@@ -2696,22 +2696,22 @@
         <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>QctIKDFi</t>
+          <t>EmtkXjjU</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2735,170 +2735,174 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Hradec Kralove</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.18</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>1.85</v>
       </c>
       <c r="J13" t="n">
-        <v>2.77</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.85</v>
+        <v>2.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
         <v>1.91</v>
       </c>
       <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH13" t="n">
         <v>7</v>
       </c>
-      <c r="X13" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AI13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO13" t="n">
         <v>21</v>
       </c>
-      <c r="AA13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AP13" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AR13" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AS13" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW13" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>81</v>
+      </c>
       <c r="AX13" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AZ13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="BB13" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="BC13" t="n">
-        <v>350</v>
-      </c>
-      <c r="BD13" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MToc6WxB</t>
+          <t>QctIKDFi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2908,179 +2912,175 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>2.25</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R14" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>9.75</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AG14" t="n">
-        <v>251</v>
+        <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP14" t="n">
         <v>21</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AQ14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AY14" t="n">
         <v>19</v>
       </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA14" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="BB14" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>81</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WOOXiqth</t>
+          <t>MToc6WxB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3090,170 +3090,170 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
         <v>17</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W15" t="n">
-        <v>10</v>
-      </c>
-      <c r="X15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AP15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
         <v>8</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY15" t="n">
         <v>13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>21</v>
       </c>
       <c r="AZ15" t="n">
         <v>23</v>
       </c>
       <c r="BA15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB15" t="n">
         <v>67</v>
       </c>
-      <c r="BB15" t="n">
-        <v>81</v>
-      </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3262,7 +3262,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lpmqB4mQ</t>
+          <t>WOOXiqth</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3272,175 +3272,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Volos</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
         <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="J16" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L16" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
+        <v>19</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W16" t="n">
         <v>11</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X16" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
         <v>29</v>
       </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL16" t="n">
         <v>34</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>51</v>
-      </c>
       <c r="AM16" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
         <v>23</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA16" t="n">
         <v>67</v>
       </c>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>151</v>
-      </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BC16" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD16" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>rHVg6WKq</t>
+          <t>8dfF2Lbm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3450,175 +3454,173 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Fehervar FC</t>
+          <t>Berkane</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ujpest</t>
+          <t>Hassania Agadir</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>1.33</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>1.91</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y17" t="n">
         <v>10</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="Z17" t="n">
         <v>7.5</v>
       </c>
-      <c r="X17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y17" t="n">
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD17" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AE17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>21</v>
       </c>
-      <c r="AA17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
         <v>301</v>
       </c>
-      <c r="AH17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>201</v>
-      </c>
       <c r="AT17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AZ17" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BB17" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>201</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8dfF2Lbm</t>
+          <t>nywDEm0k</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3628,173 +3630,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Legia</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hassania Agadir</t>
+          <t>Cracovia</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U18" t="n">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="W18" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC18" t="n">
         <v>15</v>
       </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AD18" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
         <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>29</v>
       </c>
-      <c r="AK18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL18" t="n">
+      <c r="BA18" t="n">
         <v>81</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="BB18" t="n">
         <v>101</v>
       </c>
-      <c r="AN18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
+      <c r="BC18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nywDEm0k</t>
+          <t>S4kwOau9</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3804,143 +3812,143 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>Pruszkow</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>LKS Lodz</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
         <v>2.1</v>
       </c>
-      <c r="K19" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
       <c r="R19" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS19" t="n">
         <v>201</v>
       </c>
-      <c r="AH19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>101</v>
-      </c>
       <c r="AT19" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU19" t="n">
         <v>8</v>
@@ -3949,25 +3957,25 @@
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AZ19" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BB19" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD19" t="n">
         <v>81</v>
@@ -3976,7 +3984,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S4kwOau9</t>
+          <t>EaxNGoNj</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3986,179 +3994,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>LKS Lodz</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.1</v>
       </c>
-      <c r="L20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="V20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y20" t="n">
         <v>10</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W20" t="n">
-        <v>10</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
         <v>17</v>
       </c>
-      <c r="Y20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z20" t="n">
+      <c r="AF20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
         <v>34</v>
       </c>
-      <c r="AA20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>19</v>
-      </c>
       <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP20" t="n">
         <v>29</v>
       </c>
-      <c r="AN20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="n">
         <v>81</v>
       </c>
       <c r="AS20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BA20" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC20" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EaxNGoNj</t>
+          <t>KfGlCwi4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4168,179 +4176,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="I21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>17</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T21" t="n">
         <v>3.5</v>
       </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="X21" t="n">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
       <c r="AK21" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="AL21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO21" t="n">
         <v>34</v>
       </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>13</v>
-      </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ21" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AR21" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="AX21" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="BB21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC21" t="n">
         <v>101</v>
       </c>
-      <c r="BC21" t="n">
-        <v>301</v>
-      </c>
       <c r="BD21" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OSMuEaMi</t>
+          <t>AyRaTQbK</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4350,179 +4358,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.88</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="K22" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R22" t="n">
         <v>2.2</v>
       </c>
-      <c r="L22" t="n">
+      <c r="S22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T22" t="n">
         <v>3.1</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>11</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.7</v>
+        <v>2.37</v>
       </c>
       <c r="V22" t="n">
-        <v>2.05</v>
+        <v>1.52</v>
       </c>
       <c r="W22" t="n">
-        <v>10</v>
+        <v>6.6</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>5.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="Z22" t="n">
-        <v>29</v>
+        <v>6.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AG22" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.5</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>600</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="AM22" t="n">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.75</v>
+        <v>2.92</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>12.5</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>10.25</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AW22" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX22" t="n">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="BA22" t="n">
-        <v>41</v>
+        <v>450</v>
       </c>
       <c r="BB22" t="n">
-        <v>67</v>
+        <v>500</v>
       </c>
       <c r="BC22" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BD22" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>KfGlCwi4</t>
+          <t>jT19S2Dt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4532,143 +4540,143 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.4</v>
       </c>
-      <c r="J23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>17</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.29</v>
-      </c>
       <c r="T23" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
         <v>2</v>
       </c>
       <c r="W23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA23" t="n">
         <v>21</v>
       </c>
-      <c r="X23" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>51</v>
-      </c>
       <c r="AB23" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="n">
         <v>201</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU23" t="n">
         <v>8</v>
@@ -4677,34 +4685,34 @@
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX23" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY23" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AZ23" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BA23" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BC23" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD23" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AyRaTQbK</t>
+          <t>OxOP6qJG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4714,718 +4722,172 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
         <v>13</v>
       </c>
-      <c r="J24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L24" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P24" t="n">
+      <c r="AF24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
         <v>4</v>
       </c>
-      <c r="Q24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W24" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="X24" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>600</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>175</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>2.92</v>
-      </c>
       <c r="AO24" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AP24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
-        <v>12.5</v>
+        <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AU24" t="n">
-        <v>10.25</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX24" t="n">
-        <v>12.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AZ24" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="BA24" t="n">
-        <v>450</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="BC24" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD24" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>hh03JPzQ</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Burgos CF</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W25" t="n">
-        <v>6</v>
-      </c>
-      <c r="X25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>xQyzE3bm</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>10</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X26" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>OxOP6qJG</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Lausanne</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sion</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
-        <v>11</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2</v>
-      </c>
-      <c r="W27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD27" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD22"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,7 @@
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
@@ -852,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -953,34 +953,34 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
         <v>17</v>
@@ -989,16 +989,16 @@
         <v>51</v>
       </c>
       <c r="AA3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1007,10 +1007,10 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -1025,10 +1025,10 @@
         <v>11</v>
       </c>
       <c r="AM3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
         <v>26</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
@@ -1055,7 +1055,7 @@
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX3" t="n">
         <v>3.75</v>
@@ -1070,7 +1070,7 @@
         <v>21</v>
       </c>
       <c r="BB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1344,13 +1344,13 @@
         <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
         <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="n">
         <v>34</v>
@@ -1374,7 +1374,7 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>8.5</v>
@@ -1431,7 +1431,7 @@
         <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB5" t="n">
         <v>51</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J6" t="n">
         <v>4.33</v>
       </c>
-      <c r="I6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.5</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1499,10 +1499,10 @@
         <v>19</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.44</v>
@@ -1523,7 +1523,7 @@
         <v>2.5</v>
       </c>
       <c r="W6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
         <v>29</v>
@@ -1535,7 +1535,7 @@
         <v>51</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
         <v>29</v>
@@ -1544,10 +1544,10 @@
         <v>21</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>34</v>
@@ -1568,16 +1568,16 @@
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1589,7 +1589,7 @@
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
         <v>3.75</v>
@@ -1607,16 +1607,16 @@
         <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ6" t="n">
         <v>15</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1857,10 +1857,10 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
@@ -2072,7 +2072,7 @@
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2114,7 +2114,7 @@
         <v>51</v>
       </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
@@ -2153,10 +2153,10 @@
         <v>6.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>81</v>
@@ -2589,10 +2589,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2737,28 +2737,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
@@ -2788,16 +2788,16 @@
         <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
         <v>21</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>19</v>
       </c>
       <c r="AB13" t="n">
         <v>29</v>
@@ -2818,7 +2818,7 @@
         <v>251</v>
       </c>
       <c r="AH13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -2836,7 +2836,7 @@
         <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
@@ -2866,7 +2866,7 @@
         <v>500</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2878,10 +2878,10 @@
         <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD13" t="inlineStr"/>
     </row>
@@ -2950,7 +2950,7 @@
         <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -2959,10 +2959,10 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
         <v>9</v>
@@ -2977,13 +2977,13 @@
         <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -3099,16 +3099,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K15" t="n">
         <v>2.5</v>
@@ -3129,16 +3129,16 @@
         <v>5.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
         <v>2.4</v>
       </c>
       <c r="S15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U15" t="n">
         <v>1.5</v>
@@ -3159,7 +3159,7 @@
         <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB15" t="n">
         <v>19</v>
@@ -3183,10 +3183,10 @@
         <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>41</v>
@@ -3201,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
         <v>15</v>
@@ -3216,7 +3216,7 @@
         <v>81</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU15" t="n">
         <v>7</v>
@@ -3237,7 +3237,7 @@
         <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
         <v>67</v>
@@ -3457,22 +3457,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K17" t="n">
         <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3481,67 +3481,67 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
         <v>12</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
@@ -3550,13 +3550,13 @@
         <v>51</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3571,10 +3571,10 @@
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
@@ -3595,13 +3595,13 @@
         <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
         <v>101</v>
       </c>
       <c r="BC17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3610,7 +3610,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S4kwOau9</t>
+          <t>EaxNGoNj</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3620,179 +3620,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LKS Lodz</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P18" t="n">
         <v>2.63</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>11</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>13</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AK18" t="n">
         <v>41</v>
       </c>
-      <c r="AA18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AL18" t="n">
         <v>34</v>
       </c>
-      <c r="AC18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>17</v>
-      </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
         <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY18" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="BA18" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC18" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EaxNGoNj</t>
+          <t>KfGlCwi4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3802,179 +3802,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L19" t="n">
         <v>1.95</v>
       </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>2.38</v>
       </c>
       <c r="S19" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="T19" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="V19" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="W19" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="X19" t="n">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
       </c>
       <c r="AC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY19" t="n">
         <v>7</v>
       </c>
-      <c r="AD19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI19" t="n">
+      <c r="AZ19" t="n">
         <v>15</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK19" t="n">
+      <c r="BA19" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB19" t="n">
         <v>41</v>
       </c>
-      <c r="AL19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB19" t="n">
+      <c r="BC19" t="n">
         <v>101</v>
       </c>
-      <c r="BC19" t="n">
-        <v>301</v>
-      </c>
       <c r="BD19" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KfGlCwi4</t>
+          <t>jT19S2Dt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3984,143 +3984,143 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN20" t="n">
         <v>4.75</v>
       </c>
-      <c r="I20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>17</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>21</v>
-      </c>
-      <c r="X20" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AO20" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AR20" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="n">
         <v>201</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
         <v>8</v>
@@ -4129,34 +4129,34 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX20" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AZ20" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BC20" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD20" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>jT19S2Dt</t>
+          <t>OxOP6qJG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4166,65 +4166,65 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>2.63</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="S21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
         <v>1.73</v>
@@ -4233,76 +4233,76 @@
         <v>2</v>
       </c>
       <c r="W21" t="n">
+        <v>8</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y21" t="n">
         <v>8.5</v>
       </c>
-      <c r="X21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>10</v>
-      </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
         <v>6.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
         <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>13</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
         <v>10</v>
       </c>
-      <c r="AK21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL21" t="n">
+      <c r="AP21" t="n">
         <v>21</v>
       </c>
-      <c r="AM21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
         <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU21" t="n">
         <v>8</v>
@@ -4314,206 +4314,24 @@
         <v>81</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AY21" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD21" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>OxOP6qJG</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Lausanne</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sion</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>11</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2</v>
-      </c>
-      <c r="W22" t="n">
-        <v>8</v>
-      </c>
-      <c r="X22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD22" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -789,7 +789,7 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V2" t="n">
         <v>2.5</v>
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -819,7 +819,7 @@
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -828,34 +828,34 @@
         <v>101</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -876,16 +876,16 @@
         <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>17</v>
       </c>
       <c r="BA2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB2" t="n">
         <v>51</v>
@@ -971,7 +971,7 @@
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V3" t="n">
         <v>2.2</v>
@@ -1076,7 +1076,7 @@
         <v>81</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
@@ -1120,49 +1120,49 @@
         <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
         <v>12</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="R4" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="S4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1180,7 +1180,7 @@
         <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>29</v>
@@ -1189,7 +1189,7 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1207,7 +1207,7 @@
         <v>101</v>
       </c>
       <c r="AM4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="n">
         <v>3.25</v>
@@ -1222,13 +1222,13 @@
         <v>10</v>
       </c>
       <c r="AR4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU4" t="n">
         <v>11</v>
@@ -1249,13 +1249,13 @@
         <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BB4" t="n">
         <v>301</v>
       </c>
       <c r="BC4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J5" t="n">
         <v>4.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,22 +1335,22 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W5" t="n">
         <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
         <v>34</v>
@@ -1359,10 +1359,10 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1374,7 +1374,7 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
         <v>8.5</v>
@@ -1425,13 +1425,13 @@
         <v>3.75</v>
       </c>
       <c r="AY5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AZ5" t="n">
         <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB5" t="n">
         <v>51</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H6" t="n">
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J6" t="n">
         <v>4.33</v>
@@ -1493,10 +1493,10 @@
         <v>2.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1505,10 +1505,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1517,10 +1517,10 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="V6" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="W6" t="n">
         <v>19</v>
@@ -1580,7 +1580,7 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>67</v>
@@ -1604,7 +1604,7 @@
         <v>301</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY6" t="n">
         <v>8.5</v>
@@ -1622,7 +1622,7 @@
         <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1657,31 +1657,31 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K7" t="n">
         <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
         <v>4.33</v>
@@ -1708,10 +1708,10 @@
         <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="n">
         <v>12</v>
@@ -1726,7 +1726,7 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1756,7 +1756,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
         <v>8</v>
@@ -1771,7 +1771,7 @@
         <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
         <v>3.25</v>
@@ -1795,7 +1795,7 @@
         <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
         <v>101</v>
@@ -1842,10 +1842,10 @@
         <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>2.88</v>
@@ -1854,13 +1854,13 @@
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1887,7 +1887,7 @@
         <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1902,10 +1902,10 @@
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1917,7 +1917,7 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
         <v>11</v>
@@ -1926,7 +1926,7 @@
         <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
         <v>34</v>
@@ -1953,7 +1953,7 @@
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
@@ -2737,13 +2737,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>3.1</v>
@@ -3099,16 +3099,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K15" t="n">
         <v>2.5</v>
@@ -3132,7 +3132,7 @@
         <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S15" t="n">
         <v>1.29</v>
@@ -3141,16 +3141,16 @@
         <v>3.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W15" t="n">
         <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
@@ -3159,13 +3159,13 @@
         <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
         <v>19</v>
       </c>
       <c r="AC15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="n">
         <v>8</v>
@@ -3183,10 +3183,10 @@
         <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
         <v>41</v>
@@ -3201,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP15" t="n">
         <v>15</v>
@@ -3219,7 +3219,7 @@
         <v>3.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
         <v>41</v>
@@ -3237,7 +3237,7 @@
         <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
         <v>67</v>
@@ -3457,13 +3457,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
         <v>2.1</v>
@@ -3505,7 +3505,7 @@
         <v>1.95</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
         <v>8</v>
@@ -3535,7 +3535,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
@@ -3544,7 +3544,7 @@
         <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
         <v>51</v>
@@ -3589,10 +3589,10 @@
         <v>7</v>
       </c>
       <c r="AY17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA17" t="n">
         <v>101</v>
@@ -3642,19 +3642,19 @@
         <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
         <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M18" t="n">
         <v>1.1</v>
@@ -3663,28 +3663,28 @@
         <v>7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W18" t="n">
         <v>6</v>
@@ -3705,13 +3705,13 @@
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>67</v>
@@ -3753,16 +3753,16 @@
         <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW18" t="n">
         <v>51</v>
@@ -3777,13 +3777,13 @@
         <v>34</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD18" t="n">
         <v>51</v>
@@ -3827,7 +3827,7 @@
         <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J19" t="n">
         <v>6</v>
@@ -3836,7 +3836,7 @@
         <v>2.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3851,10 +3851,10 @@
         <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R19" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="S19" t="n">
         <v>1.29</v>
@@ -4024,19 +4024,19 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
         <v>2.05</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4066,7 +4066,7 @@
         <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
         <v>9.5</v>
@@ -4185,22 +4185,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K21" t="n">
         <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -4215,10 +4215,10 @@
         <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S21" t="n">
         <v>1.36</v>
@@ -4236,10 +4236,10 @@
         <v>8</v>
       </c>
       <c r="X21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
         <v>17</v>
@@ -4248,7 +4248,7 @@
         <v>15</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
         <v>11</v>
@@ -4269,7 +4269,7 @@
         <v>12</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
         <v>13</v>
@@ -4287,7 +4287,7 @@
         <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
@@ -4314,13 +4314,13 @@
         <v>81</v>
       </c>
       <c r="AX21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY21" t="n">
         <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
         <v>67</v>
@@ -4329,7 +4329,7 @@
         <v>81</v>
       </c>
       <c r="BC21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD21" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,7 +768,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -789,7 +789,7 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
         <v>2.5</v>
@@ -935,7 +935,7 @@
         <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -947,10 +947,10 @@
         <v>2.05</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -959,22 +959,22 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
         <v>19</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
         <v>8.5</v>
@@ -1007,25 +1007,25 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9</v>
       </c>
       <c r="AJ3" t="n">
         <v>8.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
         <v>11</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="n">
         <v>7</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
@@ -1055,7 +1055,7 @@
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX3" t="n">
         <v>3.75</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="H4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
         <v>1.5</v>
@@ -1129,10 +1129,10 @@
         <v>12</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O4" t="n">
         <v>1.11</v>
@@ -1141,10 +1141,10 @@
         <v>6.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R4" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S4" t="n">
         <v>1.22</v>
@@ -1153,19 +1153,19 @@
         <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>7</v>
@@ -1189,10 +1189,10 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>67</v>
@@ -1225,7 +1225,7 @@
         <v>34</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT4" t="n">
         <v>4</v>
@@ -1240,7 +1240,7 @@
         <v>501</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>51</v>
@@ -1249,13 +1249,13 @@
         <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BB4" t="n">
         <v>301</v>
       </c>
       <c r="BC4" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,22 +1335,22 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
         <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="n">
         <v>34</v>
@@ -1374,7 +1374,7 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>8.5</v>
@@ -1425,7 +1425,7 @@
         <v>3.75</v>
       </c>
       <c r="AY5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ5" t="n">
         <v>21</v>
@@ -1478,7 +1478,7 @@
         <v>4.33</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
         <v>1.73</v>
@@ -1490,13 +1490,13 @@
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1505,10 +1505,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1517,22 +1517,22 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="V6" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="W6" t="n">
         <v>19</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
         <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
         <v>29</v>
@@ -1556,7 +1556,7 @@
         <v>101</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>11</v>
@@ -1571,7 +1571,7 @@
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="n">
         <v>6.5</v>
@@ -1583,7 +1583,7 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1675,13 +1675,13 @@
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
         <v>4.33</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ngpkpS2e</t>
+          <t>vZ5Qsl5t</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,47 +1820,47 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lokeren-Temse</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Anderlecht U23</t>
+          <t>SA Bulo Bulo</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1887,7 +1887,7 @@
         <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1896,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1920,28 +1920,28 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
         <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1964,17 +1964,15 @@
       <c r="AV8" t="n">
         <v>51</v>
       </c>
-      <c r="AW8" t="n">
-        <v>81</v>
-      </c>
+      <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>51</v>
@@ -1985,14 +1983,12 @@
       <c r="BC8" t="n">
         <v>151</v>
       </c>
-      <c r="BD8" t="n">
-        <v>81</v>
-      </c>
+      <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nu5GVSm2</t>
+          <t>GzoEl515</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,95 +1998,95 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RWDM</t>
+          <t>Cumbaya</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Beveren</t>
+          <t>Orense</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
         <v>11</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="Z9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
         <v>7.5</v>
       </c>
-      <c r="X9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2099,82 +2095,78 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
         <v>251</v>
       </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY9" t="n">
         <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>29</v>
       </c>
       <c r="BA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB9" t="n">
         <v>81</v>
       </c>
-      <c r="BB9" t="n">
-        <v>101</v>
-      </c>
       <c r="BC9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>81</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="BD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GzoEl515</t>
+          <t>bazJmPGB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,85 +2186,85 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cumbaya</t>
+          <t>Dep. Cuenca</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.82</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
         <v>29</v>
       </c>
-      <c r="AA10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2281,68 +2273,68 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
         <v>251</v>
@@ -2352,7 +2344,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bazJmPGB</t>
+          <t>C2vNnqWH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2372,82 +2364,82 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dep. Cuenca</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.91</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
         <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
@@ -2459,16 +2451,16 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
@@ -2480,16 +2472,16 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2498,39 +2490,39 @@
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
         <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C2vNnqWH</t>
+          <t>C22VdTgP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2550,49 +2542,49 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.79</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2607,22 +2599,22 @@
         <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
         <v>10</v>
@@ -2637,40 +2629,40 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>13</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AP12" t="n">
         <v>23</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AQ12" t="n">
         <v>41</v>
       </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>34</v>
-      </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
         <v>151</v>
@@ -2684,21 +2676,23 @@
       <c r="AV12" t="n">
         <v>51</v>
       </c>
-      <c r="AW12" t="inlineStr"/>
+      <c r="AW12" t="n">
+        <v>500</v>
+      </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB12" t="n">
         <v>81</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>101</v>
       </c>
       <c r="BC12" t="n">
         <v>201</v>
@@ -2708,7 +2702,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C22VdTgP</t>
+          <t>WOOXiqth</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2718,177 +2712,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>1.63</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
+        <v>19</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W13" t="n">
         <v>11</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD13" t="n">
         <v>8</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AE13" t="n">
         <v>12</v>
       </c>
-      <c r="Y13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AF13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>23</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY13" t="n">
         <v>21</v>
       </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL13" t="n">
+      <c r="AZ13" t="n">
         <v>23</v>
       </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="BA13" t="n">
         <v>67</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>500</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>51</v>
       </c>
       <c r="BB13" t="n">
         <v>67</v>
       </c>
       <c r="BC13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD13" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MToc6WxB</t>
+          <t>EaxNGoNj</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2898,131 +2894,131 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.5</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.25</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y14" t="n">
         <v>10</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI14" t="n">
         <v>15</v>
       </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
         <v>34</v>
       </c>
-      <c r="AA14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>19</v>
-      </c>
       <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP14" t="n">
         <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
       </c>
       <c r="AQ14" t="n">
         <v>51</v>
@@ -3031,46 +3027,46 @@
         <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA14" t="n">
         <v>81</v>
       </c>
-      <c r="AX14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>41</v>
-      </c>
       <c r="BB14" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WOOXiqth</t>
+          <t>KfGlCwi4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3080,41 +3076,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.73</v>
+        <v>6.5</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4.33</v>
+        <v>1.41</v>
       </c>
       <c r="J15" t="n">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>1.91</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -3123,13 +3119,13 @@
         <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R15" t="n">
         <v>2.5</v>
@@ -3141,118 +3137,118 @@
         <v>3.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="n">
         <v>17</v>
       </c>
       <c r="AD15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI15" t="n">
         <v>8</v>
       </c>
-      <c r="AE15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="AJ15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP15" t="n">
         <v>34</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AQ15" t="n">
         <v>101</v>
       </c>
-      <c r="AH15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>26</v>
-      </c>
       <c r="AR15" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
         <v>3.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB15" t="n">
         <v>41</v>
       </c>
-      <c r="AW15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>67</v>
-      </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8dfF2Lbm</t>
+          <t>jT19S2Dt</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3262,41 +3258,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Berkane</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hassania Agadir</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.33</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="J16" t="n">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -3305,130 +3301,136 @@
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>10</v>
       </c>
-      <c r="Z16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AK16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM16" t="n">
         <v>34</v>
       </c>
-      <c r="AF16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>101</v>
-      </c>
       <c r="AN16" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
         <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AU16" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW16" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>81</v>
+      </c>
       <c r="AX16" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="BA16" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>nywDEm0k</t>
+          <t>OxOP6qJG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3438,143 +3440,143 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Legia</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.55</v>
+        <v>1.96</v>
       </c>
       <c r="H17" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA17" t="n">
         <v>15</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
         <v>4</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
@@ -3583,755 +3585,27 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD17" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>EaxNGoNj</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ROMANIA - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>CFR Cluj</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>FC Rapid Bucuresti</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W18" t="n">
-        <v>6</v>
-      </c>
-      <c r="X18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>KfGlCwi4</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Hearts</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>15</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W19" t="n">
-        <v>21</v>
-      </c>
-      <c r="X19" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>jT19S2Dt</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>OxOP6qJG</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Lausanne</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sion</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>11</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8</v>
-      </c>
-      <c r="X21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD21" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -789,13 +789,13 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
         <v>19</v>
@@ -813,13 +813,13 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -828,7 +828,7 @@
         <v>101</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -843,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="AM2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN2" t="n">
         <v>5.5</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
         <v>4.5</v>
@@ -888,13 +888,13 @@
         <v>34</v>
       </c>
       <c r="BB2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="H4" t="n">
         <v>8</v>
@@ -1296,7 +1296,7 @@
         <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
         <v>1.8</v>
@@ -1341,7 +1341,7 @@
         <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X5" t="n">
         <v>23</v>
@@ -1359,10 +1359,10 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1431,7 +1431,7 @@
         <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB5" t="n">
         <v>51</v>
@@ -1493,10 +1493,10 @@
         <v>2.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1505,10 +1505,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1622,7 +1622,7 @@
         <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2050,7 +2050,7 @@
         <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2065,7 +2065,7 @@
         <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -2098,16 +2098,16 @@
         <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>11</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>10</v>
-      </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>23</v>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY9" t="n">
         <v>15</v>
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
         <v>2.63</v>
@@ -2210,13 +2210,13 @@
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -2228,7 +2228,7 @@
         <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2237,16 +2237,16 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2261,28 +2261,28 @@
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="n">
         <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
@@ -2294,7 +2294,7 @@
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
         <v>11</v>
@@ -2312,26 +2312,26 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
         <v>101</v>
@@ -2373,10 +2373,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
         <v>4.33</v>
@@ -2391,10 +2391,10 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
         <v>1.29</v>
@@ -2403,10 +2403,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2427,7 +2427,7 @@
         <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
         <v>15</v>
@@ -2439,7 +2439,7 @@
         <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
@@ -2451,10 +2451,10 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>23</v>
@@ -2569,10 +2569,10 @@
         <v>3.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -2702,7 +2702,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WOOXiqth</t>
+          <t>jT19S2Dt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2712,900 +2712,172 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.63</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX13" t="n">
         <v>4.5</v>
       </c>
-      <c r="J13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N13" t="n">
-        <v>19</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>11</v>
-      </c>
-      <c r="X13" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AY13" t="n">
         <v>15</v>
       </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
         <v>67</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>EaxNGoNj</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ROMANIA - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>CFR Cluj</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>FC Rapid Bucuresti</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6</v>
-      </c>
-      <c r="X14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>KfGlCwi4</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Hearts</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>17</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W15" t="n">
-        <v>21</v>
-      </c>
-      <c r="X15" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>jT19S2Dt</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>OxOP6qJG</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Lausanne</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sion</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8</v>
-      </c>
-      <c r="X17" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD17" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0UVRP7QP</t>
+          <t>YgMV5eZO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 1</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.1</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>2.63</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
         <v>34</v>
       </c>
-      <c r="AG2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
         <v>13</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>15</v>
-      </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA2" t="n">
         <v>101</v>
       </c>
-      <c r="AT2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>34</v>
-      </c>
       <c r="BB2" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Qyq1UHNc</t>
+          <t>vZ5Qsl5t</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,175 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>SA Bulo Bulo</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.54</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
+        <v>13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
         <v>19</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>19</v>
-      </c>
-      <c r="X3" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
         <v>17</v>
       </c>
-      <c r="Z3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>34</v>
-      </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
       </c>
       <c r="AG3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
         <v>126</v>
       </c>
-      <c r="AH3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>351</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.75</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>176</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fPvAfdU7</t>
+          <t>nwIIpQH6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1088,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.14</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>1.33</v>
       </c>
       <c r="J4" t="n">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>19</v>
+      </c>
+      <c r="X4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL4" t="n">
         <v>12</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU4" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>11</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>501</v>
+        <v>3.25</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="BA4" t="n">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="n">
-        <v>401</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YFaq9eq1</t>
+          <t>IcQ1l8Is</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1270,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.8</v>
       </c>
-      <c r="J5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.93</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA5" t="n">
         <v>12</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>23</v>
       </c>
-      <c r="Y5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL5" t="n">
         <v>51</v>
       </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR5" t="n">
         <v>41</v>
       </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
       <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>201</v>
       </c>
-      <c r="AT5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>21</v>
-      </c>
       <c r="BA5" t="n">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tGcs6SMF</t>
+          <t>t0HMqpXC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1452,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.33</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.73</v>
+        <v>6.25</v>
       </c>
       <c r="J6" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.5</v>
       </c>
-      <c r="L6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>17</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
         <v>2.5</v>
       </c>
-      <c r="W6" t="n">
-        <v>19</v>
-      </c>
-      <c r="X6" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY6" t="n">
         <v>41</v>
       </c>
-      <c r="AA6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>41</v>
+        <v>451</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rLBrhOlJ</t>
+          <t>GzoEl515</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1634,175 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Cumbaya</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Orense</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.52</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
         <v>17</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AP7" t="n">
         <v>29</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AQ7" t="n">
         <v>51</v>
       </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>23</v>
-      </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>51</v>
       </c>
-      <c r="AW7" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>29</v>
-      </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vZ5Qsl5t</t>
+          <t>bazJmPGB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,131 +1812,131 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>Dep. Cuenca</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SA Bulo Bulo</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.8</v>
       </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
         <v>41</v>
       </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
         <v>34</v>
       </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1953,42 +1945,42 @@
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6</v>
+      </c>
       <c r="AX8" t="n">
-        <v>5.5</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>151</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GzoEl515</t>
+          <t>C2vNnqWH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2008,85 +2000,85 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cumbaya</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>1.83</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.57</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.5</v>
       </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.4</v>
       </c>
-      <c r="P9" t="n">
+      <c r="T9" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.91</v>
       </c>
-      <c r="V9" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
         <v>26</v>
       </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2095,78 +2087,78 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX9" t="n">
         <v>23</v>
       </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
+      <c r="AY9" t="n">
         <v>29</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
+      <c r="AZ9" t="n">
         <v>81</v>
       </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>29</v>
-      </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>251</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bazJmPGB</t>
+          <t>C22VdTgP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2186,118 +2178,118 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dep. Cuenca</t>
+          <t>Tecnico U.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.91</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>11</v>
       </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM10" t="n">
         <v>34</v>
       </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2306,45 +2298,47 @@
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5</v>
+      </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
         <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C2vNnqWH</t>
+          <t>Cb6lFJl4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2354,47 +2348,47 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
         <v>1.29</v>
@@ -2403,10 +2397,10 @@
         <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2415,73 +2409,73 @@
         <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
         <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
         <v>12</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>10</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2493,392 +2487,34 @@
         <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
-      <c r="AW11" t="inlineStr"/>
+      <c r="AW11" t="n">
+        <v>5</v>
+      </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
         <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>C22VdTgP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ECUADOR - LIGA PRO</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Tecnico U.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Barcelona SC</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>11</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8</v>
-      </c>
-      <c r="X12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS12" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD11" t="n">
         <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>500</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>jT19S2Dt</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -798,16 +798,16 @@
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -837,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
@@ -846,10 +846,10 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1310,7 +1310,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -2158,7 +2158,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C22VdTgP</t>
+          <t>Cb6lFJl4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2168,41 +2168,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tecnico U.</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2217,10 +2217,10 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2229,58 +2229,58 @@
         <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
@@ -2289,16 +2289,16 @@
         <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
         <v>151</v>
@@ -2307,7 +2307,7 @@
         <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2328,192 +2328,12 @@
         <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Cb6lFJl4</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>New York City</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>New York Red Bulls</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC11" t="n">
         <v>501</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD10" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -795,7 +795,7 @@
         <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
         <v>10</v>
@@ -828,7 +828,7 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -840,7 +840,7 @@
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -861,7 +861,7 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -876,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -980,16 +980,16 @@
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
@@ -1016,19 +1016,19 @@
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
@@ -1037,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1067,7 +1067,7 @@
         <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
@@ -1292,10 +1292,10 @@
         <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
         <v>1.83</v>
@@ -1310,7 +1310,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1343,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
         <v>8.5</v>
@@ -1364,7 +1364,7 @@
         <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>501</v>
@@ -1624,7 +1624,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GzoEl515</t>
+          <t>Cb6lFJl4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1634,158 +1634,158 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cumbaya</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orense</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.75</v>
       </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>13</v>
       </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AF7" t="n">
         <v>41</v>
       </c>
-      <c r="AC7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>11</v>
       </c>
       <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
         <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>23</v>
       </c>
       <c r="AM7" t="n">
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>17</v>
       </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>15</v>
-      </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
         <v>51</v>
@@ -1794,546 +1794,12 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>bazJmPGB</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ECUADOR - LIGA PRO</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Dep. Cuenca</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Libertad</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
         <v>151</v>
       </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>C2vNnqWH</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ECUADOR - LIGA PRO</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Emelec</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Imbabura</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Cb6lFJl4</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>New York City</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>New York Red Bulls</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC10" t="n">
+      <c r="BC7" t="n">
         <v>501</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD7" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -941,7 +941,7 @@
         <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
@@ -950,19 +950,19 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -998,7 +998,7 @@
         <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -1016,13 +1016,13 @@
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>34</v>
@@ -1137,10 +1137,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1289,28 +1289,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1343,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
         <v>8.5</v>
@@ -1355,22 +1355,22 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
@@ -1388,7 +1388,7 @@
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
         <v>6.5</v>
@@ -1471,22 +1471,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1501,10 +1501,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1528,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
@@ -1558,7 +1558,7 @@
         <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>67</v>
@@ -1573,7 +1573,7 @@
         <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1597,7 +1597,7 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
         <v>34</v>
@@ -1606,10 +1606,10 @@
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA6" t="n">
         <v>151</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>201</v>
       </c>
       <c r="BB6" t="n">
         <v>451</v>
@@ -1671,22 +1671,22 @@
         <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
@@ -816,7 +816,7 @@
         <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -834,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -894,13 +894,13 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vZ5Qsl5t</t>
+          <t>8Ecsv645</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,148 +920,148 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SA Bulo Bulo</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
         <v>8.5</v>
       </c>
-      <c r="X3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>17</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI3" t="n">
         <v>15</v>
       </c>
-      <c r="AB3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
         <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
         <v>51</v>
@@ -1070,7 +1070,7 @@
         <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1125,22 +1125,22 @@
         <v>1.83</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1289,22 +1289,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1343,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
         <v>8.5</v>
@@ -1358,19 +1358,19 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
@@ -1382,13 +1382,13 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO5" t="n">
         <v>6.5</v>
@@ -1409,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
@@ -1471,22 +1471,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>2.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1504,7 +1504,7 @@
         <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1528,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
@@ -1573,7 +1573,7 @@
         <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1606,10 +1606,10 @@
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
         <v>451</v>
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1677,16 +1677,16 @@
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1695,22 +1695,22 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>17</v>
@@ -1719,19 +1719,19 @@
         <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH7" t="n">
         <v>10</v>
@@ -1740,10 +1740,10 @@
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
         <v>26</v>
@@ -1752,10 +1752,10 @@
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
@@ -1773,28 +1773,28 @@
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
         <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -798,13 +798,13 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
         <v>23</v>
@@ -816,7 +816,7 @@
         <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -831,7 +831,7 @@
         <v>7.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -873,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -947,13 +947,13 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1125,13 +1125,13 @@
         <v>1.83</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
         <v>4.33</v>
@@ -1289,28 +1289,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1331,22 +1331,22 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
         <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
         <v>12</v>
@@ -1358,19 +1358,19 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
@@ -1382,13 +1382,13 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
         <v>6.5</v>
@@ -1409,13 +1409,13 @@
         <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
@@ -1424,7 +1424,7 @@
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA5" t="n">
         <v>201</v>
@@ -1471,16 +1471,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
@@ -1507,10 +1507,10 @@
         <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
@@ -1552,7 +1552,7 @@
         <v>501</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
@@ -1588,16 +1588,16 @@
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
         <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX6" t="n">
         <v>34</v>
@@ -1677,16 +1677,16 @@
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8Ecsv645</t>
+          <t>vXrcMGJ5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,175 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Royal Pari</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3.1</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>1.36</v>
       </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.5</v>
       </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>451</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY3" t="n">
         <v>41</v>
       </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nwIIpQH6</t>
+          <t>8Ecsv645</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,179 +1092,175 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
         <v>13</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
         <v>19</v>
       </c>
-      <c r="X4" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>51</v>
       </c>
-      <c r="AB4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>19</v>
-      </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IcQ1l8Is</t>
+          <t>nwIIpQH6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1280,85 +1280,85 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>1.33</v>
       </c>
       <c r="J5" t="n">
-        <v>1.91</v>
+        <v>7.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>7.5</v>
+        <v>1.83</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>41</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1367,46 +1367,46 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO5" t="n">
         <v>41</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
+      <c r="AP5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
         <v>3.25</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
@@ -1415,22 +1415,22 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="AX5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA5" t="n">
         <v>41</v>
       </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>201</v>
-      </c>
       <c r="BB5" t="n">
-        <v>401</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1442,7 +1442,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t0HMqpXC</t>
+          <t>IcQ1l8Is</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1462,106 +1462,106 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W6" t="n">
         <v>6.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.5</v>
       </c>
       <c r="X6" t="n">
         <v>6.5</v>
       </c>
       <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>9</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
         <v>11</v>
       </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1570,25 +1570,25 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>9.5</v>
@@ -1597,10 +1597,10 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1612,7 +1612,7 @@
         <v>201</v>
       </c>
       <c r="BB6" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1624,7 +1624,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cb6lFJl4</t>
+          <t>t0HMqpXC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1639,167 +1639,531 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K7" t="n">
         <v>2.1</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.2</v>
       </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>19</v>
       </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
         <v>51</v>
       </c>
-      <c r="AG7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
       </c>
       <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>151</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="BA7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>451</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>jBO9nnmf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J8" t="n">
         <v>2.75</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="K8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X8" t="n">
         <v>8</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK8" t="n">
         <v>51</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>451</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cb6lFJl4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>New York Red Bulls</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX9" t="n">
         <v>19</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY9" t="n">
         <v>26</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ9" t="n">
         <v>67</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA9" t="n">
         <v>81</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB9" t="n">
         <v>201</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC9" t="n">
         <v>501</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD9" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>YgMV5eZO</t>
+          <t>vXrcMGJ5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,64 +738,64 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="T2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.25</v>
       </c>
-      <c r="U2" t="n">
-        <v>2.05</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -807,88 +807,88 @@
         <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="n">
         <v>81</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
         <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vXrcMGJ5</t>
+          <t>8Ecsv645</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,175 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.1</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.8</v>
       </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
         <v>51</v>
       </c>
-      <c r="AC3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>101</v>
-      </c>
       <c r="AG3" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>41</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>67</v>
       </c>
-      <c r="AR3" t="n">
-        <v>126</v>
-      </c>
       <c r="AS3" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="n">
         <v>81</v>
       </c>
-      <c r="BA3" t="n">
-        <v>151</v>
-      </c>
       <c r="BB3" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>126</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8Ecsv645</t>
+          <t>jBO9nnmf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,175 +1088,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Royal Pari</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>17</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AK4" t="n">
         <v>51</v>
       </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+        <v>451</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nwIIpQH6</t>
+          <t>tCe1jlfl</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1270,901 +1270,173 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>2.95</v>
       </c>
       <c r="H5" t="n">
-        <v>5.25</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>7.5</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>2.07</v>
       </c>
       <c r="W5" t="n">
-        <v>19</v>
+        <v>10.75</v>
       </c>
       <c r="X5" t="n">
-        <v>41</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AA5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>IcQ1l8Is</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE A BETANO</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Botafogo RJ</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vitoria</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>401</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>t0HMqpXC</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE A BETANO</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cuiaba</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>451</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>jBO9nnmf</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE A BETANO</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Sao Paulo</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Atletico-MG</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>451</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Cb6lFJl4</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>New York City</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>New York Red Bulls</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -753,22 +753,22 @@
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -777,10 +777,10 @@
         <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
         <v>1.67</v>
@@ -792,7 +792,7 @@
         <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
@@ -804,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>29</v>
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -846,7 +846,7 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -876,10 +876,10 @@
         <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>67</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,22 +971,22 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1010,34 +1010,34 @@
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
         <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1055,10 +1055,10 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1070,7 +1070,7 @@
         <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -1292,10 +1292,10 @@
         <v>2.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J5" t="n">
         <v>3.45</v>
@@ -1304,7 +1304,7 @@
         <v>2.15</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1313,16 +1313,16 @@
         <v>10.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1331,10 +1331,10 @@
         <v>2.55</v>
       </c>
       <c r="U5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
         <v>10.75</v>
@@ -1355,10 +1355,10 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE5" t="n">
         <v>12.5</v>
@@ -1370,10 +1370,10 @@
         <v>350</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ5" t="n">
         <v>8.75</v>
@@ -1385,7 +1385,7 @@
         <v>16.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
         <v>5</v>
@@ -1400,13 +1400,13 @@
         <v>70</v>
       </c>
       <c r="AR5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS5" t="n">
         <v>250</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU5" t="n">
         <v>6.6</v>
@@ -1418,16 +1418,16 @@
         <v>4.2</v>
       </c>
       <c r="AX5" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB5" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -777,10 +777,10 @@
         <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.67</v>
@@ -795,19 +795,19 @@
         <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -846,7 +846,7 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -873,22 +873,22 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -789,22 +789,22 @@
         <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -828,28 +828,28 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -861,7 +861,7 @@
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
         <v>2.1</v>
@@ -885,7 +885,7 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>451</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1167,7 +1167,7 @@
         <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1179,7 +1179,7 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P2" t="n">
         <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>1.67</v>
@@ -795,19 +795,19 @@
         <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
         <v>23</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -822,7 +822,7 @@
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
         <v>501</v>
@@ -831,10 +831,10 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -873,10 +873,10 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8Ecsv645</t>
+          <t>0b9yyKnJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,95 +910,95 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>AUSTRALIA - A-LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Royal Pari</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>1.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.05</v>
       </c>
-      <c r="L3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -1010,43 +1010,43 @@
         <v>351</v>
       </c>
       <c r="AH3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI3" t="n">
         <v>8</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK3" t="n">
         <v>13</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM3" t="n">
         <v>29</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AN3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO3" t="n">
         <v>26</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>34</v>
       </c>
-      <c r="AN3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
@@ -1055,25 +1055,29 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA3" t="n">
         <v>51</v>
       </c>
-      <c r="BA3" t="n">
-        <v>81</v>
-      </c>
       <c r="BB3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1307,10 +1311,10 @@
         <v>2.72</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,13 +765,13 @@
         <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
         <v>2.2</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -959,7 +959,7 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>1.8</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jBO9nnmf</t>
+          <t>tCe1jlfl</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,354 +1092,172 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>2.18</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>2.72</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.57</v>
       </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>10.75</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>11.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>501</v>
+        <v>350</v>
       </c>
       <c r="AH4" t="n">
         <v>9</v>
       </c>
       <c r="AI4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP4" t="n">
         <v>21</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
+      <c r="AQ4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>451</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
       <c r="BD4" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>tCe1jlfl</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="X5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>65</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vXrcMGJ5</t>
+          <t>0b9yyKnJ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,537 +728,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>AUSTRALIA - A-LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK2" t="n">
         <v>15</v>
       </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
       </c>
       <c r="AQ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV2" t="n">
         <v>51</v>
       </c>
-      <c r="AR2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>81</v>
-      </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>501</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>3.75</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>9.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC2" t="n">
         <v>151</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0b9yyKnJ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AUSTRALIA - A-LEAGUE</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Wellington Phoenix</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Melbourne Victory</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>11</v>
-      </c>
-      <c r="X3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tCe1jlfl</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>23/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="X4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>65</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -765,10 +765,10 @@
         <v>2.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,16 +777,16 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -837,7 +837,7 @@
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -855,13 +855,13 @@
         <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR2" t="n">
         <v>126</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.63</v>
@@ -876,7 +876,7 @@
         <v>501</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY2" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -747,46 +747,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -795,16 +795,16 @@
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
         <v>41</v>
@@ -813,10 +813,10 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
         <v>6.5</v>
@@ -834,28 +834,28 @@
         <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
         <v>126</v>
@@ -870,19 +870,19 @@
         <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>501</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
         <v>34</v>
@@ -891,7 +891,7 @@
         <v>51</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD2" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-23.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -798,16 +798,16 @@
         <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -831,13 +831,13 @@
         <v>6.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>17</v>
@@ -858,10 +858,10 @@
         <v>81</v>
       </c>
       <c r="AR2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.63</v>
@@ -879,16 +879,16 @@
         <v>3.75</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>23</v>
       </c>
       <c r="BA2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC2" t="n">
         <v>201</v>
